--- a/examples/ex210.transient_solutions.xlsx
+++ b/examples/ex210.transient_solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DA0C5A-E999-4759-94BF-ACC761E76F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB13827-04DE-46AB-805C-F6549F512E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="4035" windowWidth="28800" windowHeight="15435" tabRatio="547" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" tabRatio="547" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Упражнение 2" sheetId="4" r:id="rId1"/>
@@ -264,9 +264,6 @@
     <t>конечный радиус скин послеприток</t>
   </si>
   <si>
-    <t>t, day</t>
-  </si>
-  <si>
     <t>t,sec</t>
   </si>
   <si>
@@ -476,6 +473,9 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>t, hr</t>
   </si>
 </sst>
 </file>
@@ -770,7 +770,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -813,106 +813,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.20833333333333329</c:v>
+                  <c:v>0.49999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31249999999999994</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46874999999999994</c:v>
+                  <c:v>1.1249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70312499999999989</c:v>
+                  <c:v>1.6874999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0546874999999998</c:v>
+                  <c:v>2.5312499999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5820312499999998</c:v>
+                  <c:v>3.7968749999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.373046875</c:v>
+                  <c:v>5.6953125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5595703125</c:v>
+                  <c:v>8.54296875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.33935546875</c:v>
+                  <c:v>12.814453125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0090332031249982</c:v>
+                  <c:v>19.2216796875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.013549804687498</c:v>
+                  <c:v>28.832519531249996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.020324707031246</c:v>
+                  <c:v>43.248779296874993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.030487060546875</c:v>
+                  <c:v>64.8731689453125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.545730590820305</c:v>
+                  <c:v>97.309753417968736</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60.818595886230462</c:v>
+                  <c:v>145.9646301269531</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91.227893829345689</c:v>
+                  <c:v>218.94694519042966</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>136.84184074401853</c:v>
+                  <c:v>328.42041778564453</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>205.2627611160278</c:v>
+                  <c:v>492.63062667846674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>307.89414167404175</c:v>
+                  <c:v>738.9459400177002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>461.84121251106257</c:v>
+                  <c:v>1108.4189100265503</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>692.76181876659382</c:v>
+                  <c:v>1662.628365039825</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1039.1427281498909</c:v>
+                  <c:v>2493.9425475597377</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1558.7140922248361</c:v>
+                  <c:v>3740.9138213396063</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2338.0711383372541</c:v>
+                  <c:v>5611.3707320094099</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3507.1067075058813</c:v>
+                  <c:v>8417.0560980141163</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5260.6600612588218</c:v>
+                  <c:v>12625.584147021173</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7890.9900918882331</c:v>
+                  <c:v>18938.376220531758</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11836.485137832349</c:v>
+                  <c:v>28407.564330797639</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17754.727706748527</c:v>
+                  <c:v>42611.346496196456</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26632.091560122786</c:v>
+                  <c:v>63917.019744294681</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39948.137340184177</c:v>
+                  <c:v>95875.529616442029</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>59922.206010276263</c:v>
+                  <c:v>143813.29442466304</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>89883.309015414401</c:v>
+                  <c:v>215719.94163699454</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>134824.96352312161</c:v>
+                  <c:v>323579.91245549184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,106 +924,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>7.9204218425731207E-2</c:v>
+                  <c:v>0.27988679738808031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15529828927277139</c:v>
+                  <c:v>0.41444387267429317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26063366101746743</c:v>
+                  <c:v>0.56866170584125642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39157422211260257</c:v>
+                  <c:v>0.73758187967541788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54301091821190584</c:v>
+                  <c:v>0.9170856375327241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70989147779472594</c:v>
+                  <c:v>1.1040162484868015</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88794613600142003</c:v>
+                  <c:v>1.2960704316119251</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0738687758806522</c:v>
+                  <c:v>1.4916191979226228</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.265231674487107</c:v>
+                  <c:v>1.6895334301346925</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4603107973813221</c:v>
+                  <c:v>1.8890407340161577</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6579079658348872</c:v>
+                  <c:v>2.0896173011569372</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8572021113984418</c:v>
+                  <c:v>2.2909099359826546</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0576357751425398</c:v>
+                  <c:v>2.4926813883743333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2588327847556591</c:v>
+                  <c:v>2.6947726937302865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4605403281582325</c:v>
+                  <c:v>2.8970775198872012</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.6625889567740546</c:v>
+                  <c:v>3.0995248202751928</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8648653002834972</c:v>
+                  <c:v>3.3020671599849836</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0672935982323657</c:v>
+                  <c:v>3.5046728843670132</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2698232634199842</c:v>
+                  <c:v>3.7073208763673797</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.4724205353507833</c:v>
+                  <c:v>3.9099970517456168</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.6750628911523076</c:v>
+                  <c:v>4.11269201824972</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8777353085172797</c:v>
+                  <c:v>4.3153995131521841</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0804277694359001</c:v>
+                  <c:v>4.5181153607563003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.2831335938398984</c:v>
+                  <c:v>4.7208367770220079</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.4858483277303032</c:v>
+                  <c:v>4.923561905814922</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6885690014988395</c:v>
+                  <c:v>5.1262895096642609</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.8912936352841445</c:v>
+                  <c:v>5.3290187635682349</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.0940209091241906</c:v>
+                  <c:v>5.5317491175161928</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.2967499430200924</c:v>
+                  <c:v>5.7344802048301702</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.4994801502951702</c:v>
+                  <c:v>5.9372117810563214</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.702211139826856</c:v>
+                  <c:v>6.1399436832245842</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.9049426508646485</c:v>
+                  <c:v>6.342675802687884</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.1076745095739327</c:v>
+                  <c:v>6.5454080670146739</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.3104066000645469</c:v>
+                  <c:v>6.7481404279171802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,106 +1068,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.20833333333333329</c:v>
+                  <c:v>0.49999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31249999999999994</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46874999999999994</c:v>
+                  <c:v>1.1249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70312499999999989</c:v>
+                  <c:v>1.6874999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0546874999999998</c:v>
+                  <c:v>2.5312499999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5820312499999998</c:v>
+                  <c:v>3.7968749999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.373046875</c:v>
+                  <c:v>5.6953125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5595703125</c:v>
+                  <c:v>8.54296875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.33935546875</c:v>
+                  <c:v>12.814453125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0090332031249982</c:v>
+                  <c:v>19.2216796875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.013549804687498</c:v>
+                  <c:v>28.832519531249996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.020324707031246</c:v>
+                  <c:v>43.248779296874993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.030487060546875</c:v>
+                  <c:v>64.8731689453125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.545730590820305</c:v>
+                  <c:v>97.309753417968736</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60.818595886230462</c:v>
+                  <c:v>145.9646301269531</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91.227893829345689</c:v>
+                  <c:v>218.94694519042966</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>136.84184074401853</c:v>
+                  <c:v>328.42041778564453</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>205.2627611160278</c:v>
+                  <c:v>492.63062667846674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>307.89414167404175</c:v>
+                  <c:v>738.9459400177002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>461.84121251106257</c:v>
+                  <c:v>1108.4189100265503</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>692.76181876659382</c:v>
+                  <c:v>1662.628365039825</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1039.1427281498909</c:v>
+                  <c:v>2493.9425475597377</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1558.7140922248361</c:v>
+                  <c:v>3740.9138213396063</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2338.0711383372541</c:v>
+                  <c:v>5611.3707320094099</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3507.1067075058813</c:v>
+                  <c:v>8417.0560980141163</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5260.6600612588218</c:v>
+                  <c:v>12625.584147021173</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7890.9900918882331</c:v>
+                  <c:v>18938.376220531758</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11836.485137832349</c:v>
+                  <c:v>28407.564330797639</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17754.727706748527</c:v>
+                  <c:v>42611.346496196456</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26632.091560122786</c:v>
+                  <c:v>63917.019744294681</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39948.137340184177</c:v>
+                  <c:v>95875.529616442029</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>59922.206010276263</c:v>
+                  <c:v>143813.29442466304</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>89883.309015414401</c:v>
+                  <c:v>215719.94163699454</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>134824.96352312161</c:v>
+                  <c:v>323579.91245549184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,106 +1179,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1.2786025869338857E-2</c:v>
+                  <c:v>0.22030645831546281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9059966190141608E-2</c:v>
+                  <c:v>0.30439112418184777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.836326805488909E-2</c:v>
+                  <c:v>0.41308372298703944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2112024531746783E-2</c:v>
+                  <c:v>0.54901027619189335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2339395369576778E-2</c:v>
+                  <c:v>0.71266376712947022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1920749318944672E-2</c:v>
+                  <c:v>0.90166100429996732</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13483750689374574</c:v>
+                  <c:v>1.1107416626555278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19643925191405742</c:v>
+                  <c:v>1.3328057165217615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28360538646279565</c:v>
+                  <c:v>1.5606944160008425</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40461328178503209</c:v>
+                  <c:v>1.7888487234122294</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5684013876229983</c:v>
+                  <c:v>2.0140386315470096</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78284433937733411</c:v>
+                  <c:v>2.2350673794317117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.05181694325438</c:v>
+                  <c:v>2.4519888878567144</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3715038614791411</c:v>
+                  <c:v>2.6654000160851865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7277277692282951</c:v>
+                  <c:v>2.8760201848635916</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0972350956853916</c:v>
+                  <c:v>3.0845074964672676</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4547339499586087</c:v>
+                  <c:v>3.291402531125641</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.7826696238298609</c:v>
+                  <c:v>3.4971264119449188</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.076459640480607</c:v>
+                  <c:v>3.7019975987932412</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.341404112354212</c:v>
+                  <c:v>3.9062525624176487</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.5858045697968919</c:v>
+                  <c:v>4.1100648080027895</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8165585856550024</c:v>
+                  <c:v>4.3135605312563712</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0383127157983836</c:v>
+                  <c:v>4.5168309034197591</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.2540563292131992</c:v>
+                  <c:v>4.7199414306815015</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.4657377888943302</c:v>
+                  <c:v>4.9229389591346262</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6746488782082452</c:v>
+                  <c:v>5.1258568448683945</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.881657213481958</c:v>
+                  <c:v>5.3287187546957284</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.0873521502944641</c:v>
+                  <c:v>5.531541416363325</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.2921377423335798</c:v>
+                  <c:v>5.7343366233690176</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.4962927994783968</c:v>
+                  <c:v>5.9371126772311982</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.7000103994650999</c:v>
+                  <c:v>6.139875377266435</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.903424547141185</c:v>
+                  <c:v>6.3426287926267833</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.1066282994870562</c:v>
+                  <c:v>6.5453757693176158</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.3096862881502602</c:v>
+                  <c:v>6.7481182793853804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1378,7 +1378,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1416,7 +1416,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887936639"/>
@@ -1508,7 +1508,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1546,7 +1546,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822254975"/>
@@ -1588,7 +1588,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1625,7 +1625,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1714,7 +1714,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1757,106 +1757,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.20833333333333329</c:v>
+                  <c:v>0.49999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31249999999999994</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46874999999999994</c:v>
+                  <c:v>1.1249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70312499999999989</c:v>
+                  <c:v>1.6874999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0546874999999998</c:v>
+                  <c:v>2.5312499999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5820312499999998</c:v>
+                  <c:v>3.7968749999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.373046875</c:v>
+                  <c:v>5.6953125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5595703125</c:v>
+                  <c:v>8.54296875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.33935546875</c:v>
+                  <c:v>12.814453125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0090332031249982</c:v>
+                  <c:v>19.2216796875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.013549804687498</c:v>
+                  <c:v>28.832519531249996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.020324707031246</c:v>
+                  <c:v>43.248779296874993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.030487060546875</c:v>
+                  <c:v>64.8731689453125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.545730590820305</c:v>
+                  <c:v>97.309753417968736</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60.818595886230462</c:v>
+                  <c:v>145.9646301269531</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91.227893829345689</c:v>
+                  <c:v>218.94694519042966</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>136.84184074401853</c:v>
+                  <c:v>328.42041778564453</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>205.2627611160278</c:v>
+                  <c:v>492.63062667846674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>307.89414167404175</c:v>
+                  <c:v>738.9459400177002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>461.84121251106257</c:v>
+                  <c:v>1108.4189100265503</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>692.76181876659382</c:v>
+                  <c:v>1662.628365039825</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1039.1427281498909</c:v>
+                  <c:v>2493.9425475597377</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1558.7140922248361</c:v>
+                  <c:v>3740.9138213396063</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2338.0711383372541</c:v>
+                  <c:v>5611.3707320094099</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3507.1067075058813</c:v>
+                  <c:v>8417.0560980141163</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5260.6600612588218</c:v>
+                  <c:v>12625.584147021173</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7890.9900918882331</c:v>
+                  <c:v>18938.376220531758</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11836.485137832349</c:v>
+                  <c:v>28407.564330797639</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17754.727706748527</c:v>
+                  <c:v>42611.346496196456</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26632.091560122786</c:v>
+                  <c:v>63917.019744294681</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39948.137340184177</c:v>
+                  <c:v>95875.529616442029</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>59922.206010276263</c:v>
+                  <c:v>143813.29442466304</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>89883.309015414401</c:v>
+                  <c:v>215719.94163699454</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>134824.96352312161</c:v>
+                  <c:v>323579.91245549184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,106 +1868,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>7.9204218425731207E-2</c:v>
+                  <c:v>0.27988679738808031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15529828927277139</c:v>
+                  <c:v>0.41444387267429317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26063366101746743</c:v>
+                  <c:v>0.56866170584125642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39157422211260257</c:v>
+                  <c:v>0.73758187967541788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54301091821190584</c:v>
+                  <c:v>0.9170856375327241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70989147779472594</c:v>
+                  <c:v>1.1040162484868015</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88794613600142003</c:v>
+                  <c:v>1.2960704316119251</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0738687758806522</c:v>
+                  <c:v>1.4916191979226228</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.265231674487107</c:v>
+                  <c:v>1.6895334301346925</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4603107973813221</c:v>
+                  <c:v>1.8890407340161577</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6579079658348872</c:v>
+                  <c:v>2.0896173011569372</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8572021113984418</c:v>
+                  <c:v>2.2909099359826546</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0576357751425398</c:v>
+                  <c:v>2.4926813883743333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2588327847556591</c:v>
+                  <c:v>2.6947726937302865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4605403281582325</c:v>
+                  <c:v>2.8970775198872012</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.6625889567740546</c:v>
+                  <c:v>3.0995248202751928</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8648653002834972</c:v>
+                  <c:v>3.3020671599849836</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0672935982323657</c:v>
+                  <c:v>3.5046728843670132</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2698232634199842</c:v>
+                  <c:v>3.7073208763673797</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.4724205353507833</c:v>
+                  <c:v>3.9099970517456168</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.6750628911523076</c:v>
+                  <c:v>4.11269201824972</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8777353085172797</c:v>
+                  <c:v>4.3153995131521841</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0804277694359001</c:v>
+                  <c:v>4.5181153607563003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.2831335938398984</c:v>
+                  <c:v>4.7208367770220079</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.4858483277303032</c:v>
+                  <c:v>4.923561905814922</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6885690014988395</c:v>
+                  <c:v>5.1262895096642609</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.8912936352841445</c:v>
+                  <c:v>5.3290187635682349</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.0940209091241906</c:v>
+                  <c:v>5.5317491175161928</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.2967499430200924</c:v>
+                  <c:v>5.7344802048301702</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.4994801502951702</c:v>
+                  <c:v>5.9372117810563214</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.702211139826856</c:v>
+                  <c:v>6.1399436832245842</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.9049426508646485</c:v>
+                  <c:v>6.342675802687884</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.1076745095739327</c:v>
+                  <c:v>6.5454080670146739</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.3104066000645469</c:v>
+                  <c:v>6.7481404279171802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2012,106 +2012,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.20833333333333329</c:v>
+                  <c:v>0.49999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31249999999999994</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46874999999999994</c:v>
+                  <c:v>1.1249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70312499999999989</c:v>
+                  <c:v>1.6874999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0546874999999998</c:v>
+                  <c:v>2.5312499999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5820312499999998</c:v>
+                  <c:v>3.7968749999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.373046875</c:v>
+                  <c:v>5.6953125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5595703125</c:v>
+                  <c:v>8.54296875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.33935546875</c:v>
+                  <c:v>12.814453125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0090332031249982</c:v>
+                  <c:v>19.2216796875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.013549804687498</c:v>
+                  <c:v>28.832519531249996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.020324707031246</c:v>
+                  <c:v>43.248779296874993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.030487060546875</c:v>
+                  <c:v>64.8731689453125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.545730590820305</c:v>
+                  <c:v>97.309753417968736</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60.818595886230462</c:v>
+                  <c:v>145.9646301269531</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91.227893829345689</c:v>
+                  <c:v>218.94694519042966</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>136.84184074401853</c:v>
+                  <c:v>328.42041778564453</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>205.2627611160278</c:v>
+                  <c:v>492.63062667846674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>307.89414167404175</c:v>
+                  <c:v>738.9459400177002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>461.84121251106257</c:v>
+                  <c:v>1108.4189100265503</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>692.76181876659382</c:v>
+                  <c:v>1662.628365039825</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1039.1427281498909</c:v>
+                  <c:v>2493.9425475597377</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1558.7140922248361</c:v>
+                  <c:v>3740.9138213396063</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2338.0711383372541</c:v>
+                  <c:v>5611.3707320094099</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3507.1067075058813</c:v>
+                  <c:v>8417.0560980141163</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5260.6600612588218</c:v>
+                  <c:v>12625.584147021173</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7890.9900918882331</c:v>
+                  <c:v>18938.376220531758</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11836.485137832349</c:v>
+                  <c:v>28407.564330797639</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17754.727706748527</c:v>
+                  <c:v>42611.346496196456</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26632.091560122786</c:v>
+                  <c:v>63917.019744294681</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39948.137340184177</c:v>
+                  <c:v>95875.529616442029</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>59922.206010276263</c:v>
+                  <c:v>143813.29442466304</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>89883.309015414401</c:v>
+                  <c:v>215719.94163699454</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>134824.96352312161</c:v>
+                  <c:v>323579.91245549184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,106 +2123,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1.2786025869338857E-2</c:v>
+                  <c:v>0.22030645831546281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9059966190141608E-2</c:v>
+                  <c:v>0.30439112418184777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.836326805488909E-2</c:v>
+                  <c:v>0.41308372298703944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2112024531746783E-2</c:v>
+                  <c:v>0.54901027619189335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2339395369576778E-2</c:v>
+                  <c:v>0.71266376712947022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1920749318944672E-2</c:v>
+                  <c:v>0.90166100429996732</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13483750689374574</c:v>
+                  <c:v>1.1107416626555278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19643925191405742</c:v>
+                  <c:v>1.3328057165217615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28360538646279565</c:v>
+                  <c:v>1.5606944160008425</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40461328178503209</c:v>
+                  <c:v>1.7888487234122294</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5684013876229983</c:v>
+                  <c:v>2.0140386315470096</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78284433937733411</c:v>
+                  <c:v>2.2350673794317117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.05181694325438</c:v>
+                  <c:v>2.4519888878567144</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3715038614791411</c:v>
+                  <c:v>2.6654000160851865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7277277692282951</c:v>
+                  <c:v>2.8760201848635916</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0972350956853916</c:v>
+                  <c:v>3.0845074964672676</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4547339499586087</c:v>
+                  <c:v>3.291402531125641</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.7826696238298609</c:v>
+                  <c:v>3.4971264119449188</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.076459640480607</c:v>
+                  <c:v>3.7019975987932412</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.341404112354212</c:v>
+                  <c:v>3.9062525624176487</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.5858045697968919</c:v>
+                  <c:v>4.1100648080027895</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8165585856550024</c:v>
+                  <c:v>4.3135605312563712</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0383127157983836</c:v>
+                  <c:v>4.5168309034197591</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.2540563292131992</c:v>
+                  <c:v>4.7199414306815015</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.4657377888943302</c:v>
+                  <c:v>4.9229389591346262</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6746488782082452</c:v>
+                  <c:v>5.1258568448683945</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.881657213481958</c:v>
+                  <c:v>5.3287187546957284</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.0873521502944641</c:v>
+                  <c:v>5.531541416363325</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.2921377423335798</c:v>
+                  <c:v>5.7343366233690176</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.4962927994783968</c:v>
+                  <c:v>5.9371126772311982</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.7000103994650999</c:v>
+                  <c:v>6.139875377266435</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.903424547141185</c:v>
+                  <c:v>6.3426287926267833</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.1066282994870562</c:v>
+                  <c:v>6.5453757693176158</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.3096862881502602</c:v>
+                  <c:v>6.7481182793853804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,7 +2323,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2361,7 +2361,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887936639"/>
@@ -2453,7 +2453,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2491,7 +2491,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822254975"/>
@@ -2533,7 +2533,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2570,7 +2570,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2659,7 +2659,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2702,106 +2702,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.20833333333333329</c:v>
+                  <c:v>0.49999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31249999999999994</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46874999999999994</c:v>
+                  <c:v>1.1249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70312499999999989</c:v>
+                  <c:v>1.6874999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0546874999999998</c:v>
+                  <c:v>2.5312499999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5820312499999998</c:v>
+                  <c:v>3.7968749999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.373046875</c:v>
+                  <c:v>5.6953125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5595703125</c:v>
+                  <c:v>8.54296875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.33935546875</c:v>
+                  <c:v>12.814453125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0090332031249982</c:v>
+                  <c:v>19.2216796875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.013549804687498</c:v>
+                  <c:v>28.832519531249996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.020324707031246</c:v>
+                  <c:v>43.248779296874993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.030487060546875</c:v>
+                  <c:v>64.8731689453125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.545730590820305</c:v>
+                  <c:v>97.309753417968736</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60.818595886230462</c:v>
+                  <c:v>145.9646301269531</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91.227893829345689</c:v>
+                  <c:v>218.94694519042966</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>136.84184074401853</c:v>
+                  <c:v>328.42041778564453</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>205.2627611160278</c:v>
+                  <c:v>492.63062667846674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>307.89414167404175</c:v>
+                  <c:v>738.9459400177002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>461.84121251106257</c:v>
+                  <c:v>1108.4189100265503</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>692.76181876659382</c:v>
+                  <c:v>1662.628365039825</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1039.1427281498909</c:v>
+                  <c:v>2493.9425475597377</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1558.7140922248361</c:v>
+                  <c:v>3740.9138213396063</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2338.0711383372541</c:v>
+                  <c:v>5611.3707320094099</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3507.1067075058813</c:v>
+                  <c:v>8417.0560980141163</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5260.6600612588218</c:v>
+                  <c:v>12625.584147021173</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7890.9900918882331</c:v>
+                  <c:v>18938.376220531758</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11836.485137832349</c:v>
+                  <c:v>28407.564330797639</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17754.727706748527</c:v>
+                  <c:v>42611.346496196456</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26632.091560122786</c:v>
+                  <c:v>63917.019744294681</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39948.137340184177</c:v>
+                  <c:v>95875.529616442029</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>59922.206010276263</c:v>
+                  <c:v>143813.29442466304</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>89883.309015414401</c:v>
+                  <c:v>215719.94163699454</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>134824.96352312161</c:v>
+                  <c:v>323579.91245549184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2813,106 +2813,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>7.9204218425731207E-2</c:v>
+                  <c:v>0.27988679738808031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15529828927277139</c:v>
+                  <c:v>0.41444387267429317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26063366101746743</c:v>
+                  <c:v>0.56866170584125642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39157422211260257</c:v>
+                  <c:v>0.73758187967541788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54301091821190584</c:v>
+                  <c:v>0.9170856375327241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70989147779472594</c:v>
+                  <c:v>1.1040162484868015</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88794613600142003</c:v>
+                  <c:v>1.2960704316119251</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0738687758806522</c:v>
+                  <c:v>1.4916191979226228</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.265231674487107</c:v>
+                  <c:v>1.6895334301346925</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4603107973813221</c:v>
+                  <c:v>1.8890407340161577</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6579079658348872</c:v>
+                  <c:v>2.0896173011569372</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8572021113984418</c:v>
+                  <c:v>2.2909099359826546</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0576357751425398</c:v>
+                  <c:v>2.4926813883743333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2588327847556591</c:v>
+                  <c:v>2.6947726937302865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4605403281582325</c:v>
+                  <c:v>2.8970775198872012</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.6625889567740546</c:v>
+                  <c:v>3.0995248202751928</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8648653002834972</c:v>
+                  <c:v>3.3020671599849836</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0672935982323657</c:v>
+                  <c:v>3.5046728843670132</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2698232634199842</c:v>
+                  <c:v>3.7073208763673797</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.4724205353507833</c:v>
+                  <c:v>3.9099970517456168</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.6750628911523076</c:v>
+                  <c:v>4.11269201824972</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8777353085172797</c:v>
+                  <c:v>4.3153995131521841</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0804277694359001</c:v>
+                  <c:v>4.5181153607563003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.2831335938398984</c:v>
+                  <c:v>4.7208367770220079</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.4858483277303032</c:v>
+                  <c:v>4.923561905814922</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6885690014988395</c:v>
+                  <c:v>5.1262895096642609</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.8912936352841445</c:v>
+                  <c:v>5.3290187635682349</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.0940209091241906</c:v>
+                  <c:v>5.5317491175161928</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.2967499430200924</c:v>
+                  <c:v>5.7344802048301702</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.4994801502951702</c:v>
+                  <c:v>5.9372117810563214</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.702211139826856</c:v>
+                  <c:v>6.1399436832245842</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.9049426508646485</c:v>
+                  <c:v>6.342675802687884</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.1076745095739327</c:v>
+                  <c:v>6.5454080670146739</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.3104066000645469</c:v>
+                  <c:v>6.7481404279171802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2957,106 +2957,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.20833333333333329</c:v>
+                  <c:v>0.49999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31249999999999994</c:v>
+                  <c:v>0.74999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46874999999999994</c:v>
+                  <c:v>1.1249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70312499999999989</c:v>
+                  <c:v>1.6874999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0546874999999998</c:v>
+                  <c:v>2.5312499999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5820312499999998</c:v>
+                  <c:v>3.7968749999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.373046875</c:v>
+                  <c:v>5.6953125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5595703125</c:v>
+                  <c:v>8.54296875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.33935546875</c:v>
+                  <c:v>12.814453125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0090332031249982</c:v>
+                  <c:v>19.2216796875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.013549804687498</c:v>
+                  <c:v>28.832519531249996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.020324707031246</c:v>
+                  <c:v>43.248779296874993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.030487060546875</c:v>
+                  <c:v>64.8731689453125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.545730590820305</c:v>
+                  <c:v>97.309753417968736</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60.818595886230462</c:v>
+                  <c:v>145.9646301269531</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91.227893829345689</c:v>
+                  <c:v>218.94694519042966</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>136.84184074401853</c:v>
+                  <c:v>328.42041778564453</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>205.2627611160278</c:v>
+                  <c:v>492.63062667846674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>307.89414167404175</c:v>
+                  <c:v>738.9459400177002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>461.84121251106257</c:v>
+                  <c:v>1108.4189100265503</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>692.76181876659382</c:v>
+                  <c:v>1662.628365039825</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1039.1427281498909</c:v>
+                  <c:v>2493.9425475597377</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1558.7140922248361</c:v>
+                  <c:v>3740.9138213396063</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2338.0711383372541</c:v>
+                  <c:v>5611.3707320094099</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3507.1067075058813</c:v>
+                  <c:v>8417.0560980141163</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5260.6600612588218</c:v>
+                  <c:v>12625.584147021173</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7890.9900918882331</c:v>
+                  <c:v>18938.376220531758</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11836.485137832349</c:v>
+                  <c:v>28407.564330797639</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17754.727706748527</c:v>
+                  <c:v>42611.346496196456</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26632.091560122786</c:v>
+                  <c:v>63917.019744294681</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39948.137340184177</c:v>
+                  <c:v>95875.529616442029</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>59922.206010276263</c:v>
+                  <c:v>143813.29442466304</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>89883.309015414401</c:v>
+                  <c:v>215719.94163699454</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>134824.96352312161</c:v>
+                  <c:v>323579.91245549184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3068,106 +3068,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1.2786025869338857E-2</c:v>
+                  <c:v>0.22030645831546281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9059966190141608E-2</c:v>
+                  <c:v>0.30439112418184777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.836326805488909E-2</c:v>
+                  <c:v>0.41308372298703944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2112024531746783E-2</c:v>
+                  <c:v>0.54901027619189335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2339395369576778E-2</c:v>
+                  <c:v>0.71266376712947022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1920749318944672E-2</c:v>
+                  <c:v>0.90166100429996732</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13483750689374574</c:v>
+                  <c:v>1.1107416626555278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19643925191405742</c:v>
+                  <c:v>1.3328057165217615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28360538646279565</c:v>
+                  <c:v>1.5606944160008425</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.40461328178503209</c:v>
+                  <c:v>1.7888487234122294</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5684013876229983</c:v>
+                  <c:v>2.0140386315470096</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78284433937733411</c:v>
+                  <c:v>2.2350673794317117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.05181694325438</c:v>
+                  <c:v>2.4519888878567144</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3715038614791411</c:v>
+                  <c:v>2.6654000160851865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7277277692282951</c:v>
+                  <c:v>2.8760201848635916</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0972350956853916</c:v>
+                  <c:v>3.0845074964672676</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4547339499586087</c:v>
+                  <c:v>3.291402531125641</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.7826696238298609</c:v>
+                  <c:v>3.4971264119449188</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.076459640480607</c:v>
+                  <c:v>3.7019975987932412</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.341404112354212</c:v>
+                  <c:v>3.9062525624176487</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.5858045697968919</c:v>
+                  <c:v>4.1100648080027895</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8165585856550024</c:v>
+                  <c:v>4.3135605312563712</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0383127157983836</c:v>
+                  <c:v>4.5168309034197591</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.2540563292131992</c:v>
+                  <c:v>4.7199414306815015</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.4657377888943302</c:v>
+                  <c:v>4.9229389591346262</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6746488782082452</c:v>
+                  <c:v>5.1258568448683945</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.881657213481958</c:v>
+                  <c:v>5.3287187546957284</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.0873521502944641</c:v>
+                  <c:v>5.531541416363325</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.2921377423335798</c:v>
+                  <c:v>5.7343366233690176</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.4962927994783968</c:v>
+                  <c:v>5.9371126772311982</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.7000103994650999</c:v>
+                  <c:v>6.139875377266435</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.903424547141185</c:v>
+                  <c:v>6.3426287926267833</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.1066282994870562</c:v>
+                  <c:v>6.5453757693176158</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.3096862881502602</c:v>
+                  <c:v>6.7481182793853804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3268,7 +3268,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3306,7 +3306,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887936639"/>
@@ -3399,7 +3399,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3437,7 +3437,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822254975"/>
@@ -3479,7 +3479,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3516,7 +3516,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3593,7 +3593,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3636,106 +3636,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1.1574074074074073E-5</c:v>
+                  <c:v>2.7777777777777778E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7361111111111111E-5</c:v>
+                  <c:v>4.1666666666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6041666666666668E-5</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9062500000000001E-5</c:v>
+                  <c:v>9.3749999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8593749999999998E-5</c:v>
+                  <c:v>1.4062499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7890624999999997E-5</c:v>
+                  <c:v>2.1093750000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3183593750000001E-4</c:v>
+                  <c:v>3.1640625000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9775390625000001E-4</c:v>
+                  <c:v>4.7460937500000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9663085937500002E-4</c:v>
+                  <c:v>7.1191406250000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.449462890625E-4</c:v>
+                  <c:v>1.06787109375E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6741943359375003E-4</c:v>
+                  <c:v>1.601806640625E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.001129150390625E-3</c:v>
+                  <c:v>2.4027099609374998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5016937255859376E-3</c:v>
+                  <c:v>3.6040649414062501E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2525405883789063E-3</c:v>
+                  <c:v>5.4060974121093751E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3788108825683594E-3</c:v>
+                  <c:v>8.1091461181640623E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0682163238525389E-3</c:v>
+                  <c:v>0.12163719177246093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6023244857788084E-3</c:v>
+                  <c:v>0.18245578765869142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1403486728668213E-2</c:v>
+                  <c:v>0.27368368148803712</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.710523009300232E-2</c:v>
+                  <c:v>0.41052552223205568</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.565784513950348E-2</c:v>
+                  <c:v>0.61578828334808355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8486767709255215E-2</c:v>
+                  <c:v>0.92368242502212516</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.773015156388283E-2</c:v>
+                  <c:v>1.3855236375331879</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.6595227345824241E-2</c:v>
+                  <c:v>2.0782854562997817</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.12989284101873635</c:v>
+                  <c:v>3.1174281844496727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.19483926152810455</c:v>
+                  <c:v>4.6761422766745095</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.29225889229215679</c:v>
+                  <c:v>7.0142134150117634</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43838833843823521</c:v>
+                  <c:v>10.521320122517645</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65758250765735282</c:v>
+                  <c:v>15.781980183776469</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.98637376148602929</c:v>
+                  <c:v>23.672970275664703</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4795606422290439</c:v>
+                  <c:v>35.509455413497051</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2193409633435657</c:v>
+                  <c:v>53.264183120245576</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3290114450153485</c:v>
+                  <c:v>79.896274680368364</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9935171675230228</c:v>
+                  <c:v>119.84441202055254</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.4902757512845346</c:v>
+                  <c:v>179.76661803082882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3747,106 +3747,106 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>249.65004408130775</c:v>
+                  <c:v>248.76334817442051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>249.3138300386772</c:v>
+                  <c:v>248.16882119297591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>248.84841623216042</c:v>
+                  <c:v>247.48742511891101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>248.26986845701768</c:v>
+                  <c:v>246.74106822284213</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>247.60076055897252</c:v>
+                  <c:v>245.9479488191254</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>246.86341549451177</c:v>
+                  <c:v>245.12201460768591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>246.07669879269133</c:v>
+                  <c:v>244.27344240496586</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>245.25521820064893</c:v>
+                  <c:v>243.4094297358987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>244.40970036944617</c:v>
+                  <c:v>242.53496549229288</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>243.54776277285038</c:v>
+                  <c:v>241.65346242082302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>242.67469944375515</c:v>
+                  <c:v>240.76723491656819</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>241.79413819099713</c:v>
+                  <c:v>239.87784353885425</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>240.90854209111021</c:v>
+                  <c:v>238.98633655360683</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>240.01957322383561</c:v>
+                  <c:v>238.09341633002211</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>239.12834861406566</c:v>
+                  <c:v>237.1995526861304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>238.23561695338952</c:v>
+                  <c:v>236.3050595340961</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>237.3418791572274</c:v>
+                  <c:v>235.41014646032235</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>236.44746996557012</c:v>
+                  <c:v>234.51495332771279</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>235.55261289290513</c:v>
+                  <c:v>233.61957343985836</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>234.6574571066061</c:v>
+                  <c:v>232.72406902656718</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>233.76210212173265</c:v>
+                  <c:v>231.82848158656543</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>232.86661431284725</c:v>
+                  <c:v>230.93283879108839</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>231.97103794352441</c:v>
+                  <c:v>230.03715909003435</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>231.0754025289778</c:v>
+                  <c:v>229.14145478440597</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>230.17972774875642</c:v>
+                  <c:v>228.24573407534734</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>229.28402672377752</c:v>
+                  <c:v>227.35000243049944</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>228.38830820186053</c:v>
+                  <c:v>226.4542634950501</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>227.49257801512567</c:v>
+                  <c:v>225.55851969916645</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>226.59684005176001</c:v>
+                  <c:v>224.66277266297837</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>225.70109690393582</c:v>
+                  <c:v>223.76702346658075</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>224.80535029978901</c:v>
+                  <c:v>222.87127283004051</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>223.90960139141964</c:v>
+                  <c:v>221.97552123340387</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>223.01385094689854</c:v>
+                  <c:v>221.07976899670237</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>222.11809947827481</c:v>
+                  <c:v>220.18401633329074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3891,106 +3891,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1.1574074074074073E-5</c:v>
+                  <c:v>2.7777777777777778E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7361111111111111E-5</c:v>
+                  <c:v>4.1666666666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6041666666666668E-5</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9062500000000001E-5</c:v>
+                  <c:v>9.3749999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8593749999999998E-5</c:v>
+                  <c:v>1.4062499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7890624999999997E-5</c:v>
+                  <c:v>2.1093750000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3183593750000001E-4</c:v>
+                  <c:v>3.1640625000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9775390625000001E-4</c:v>
+                  <c:v>4.7460937500000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9663085937500002E-4</c:v>
+                  <c:v>7.1191406250000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.449462890625E-4</c:v>
+                  <c:v>1.06787109375E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6741943359375003E-4</c:v>
+                  <c:v>1.601806640625E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.001129150390625E-3</c:v>
+                  <c:v>2.4027099609374998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5016937255859376E-3</c:v>
+                  <c:v>3.6040649414062501E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2525405883789063E-3</c:v>
+                  <c:v>5.4060974121093751E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3788108825683594E-3</c:v>
+                  <c:v>8.1091461181640623E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0682163238525389E-3</c:v>
+                  <c:v>0.12163719177246093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6023244857788084E-3</c:v>
+                  <c:v>0.18245578765869142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1403486728668213E-2</c:v>
+                  <c:v>0.27368368148803712</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.710523009300232E-2</c:v>
+                  <c:v>0.41052552223205568</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.565784513950348E-2</c:v>
+                  <c:v>0.61578828334808355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8486767709255215E-2</c:v>
+                  <c:v>0.92368242502212516</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.773015156388283E-2</c:v>
+                  <c:v>1.3855236375331879</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.6595227345824241E-2</c:v>
+                  <c:v>2.0782854562997817</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.12989284101873635</c:v>
+                  <c:v>3.1174281844496727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.19483926152810455</c:v>
+                  <c:v>4.6761422766745095</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.29225889229215679</c:v>
+                  <c:v>7.0142134150117634</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43838833843823521</c:v>
+                  <c:v>10.521320122517645</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65758250765735282</c:v>
+                  <c:v>15.781980183776469</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.98637376148602929</c:v>
+                  <c:v>23.672970275664703</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4795606422290439</c:v>
+                  <c:v>35.509455413497051</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2193409633435657</c:v>
+                  <c:v>53.264183120245576</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3290114450153485</c:v>
+                  <c:v>79.896274680368364</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9935171675230228</c:v>
+                  <c:v>119.84441202055254</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.4902757512845346</c:v>
+                  <c:v>179.76661803082882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4002,106 +4002,106 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>249.65004408130775</c:v>
+                  <c:v>248.76334817442051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>249.3138300386772</c:v>
+                  <c:v>248.16882119297591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>248.84841623216042</c:v>
+                  <c:v>247.48742511891101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>248.26986845701768</c:v>
+                  <c:v>246.74106822284213</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>247.60076055897252</c:v>
+                  <c:v>245.9479488191254</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>246.86341549451177</c:v>
+                  <c:v>245.12201460768591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>246.07669879269133</c:v>
+                  <c:v>244.27344240496586</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>245.25521820064893</c:v>
+                  <c:v>243.4094297358987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>244.40970036944617</c:v>
+                  <c:v>242.53496549229288</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>243.54776277285038</c:v>
+                  <c:v>241.65346242082302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>242.67469944375515</c:v>
+                  <c:v>240.76723491656819</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>241.79413819099713</c:v>
+                  <c:v>239.87784353885425</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>240.90854209111021</c:v>
+                  <c:v>238.98633655360683</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>240.01957322383561</c:v>
+                  <c:v>238.09341633002211</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>239.12834861406566</c:v>
+                  <c:v>237.1995526861304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>238.23561695338952</c:v>
+                  <c:v>236.3050595340961</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>237.3418791572274</c:v>
+                  <c:v>235.41014646032235</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>236.44746996557012</c:v>
+                  <c:v>234.51495332771279</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>235.55261289290513</c:v>
+                  <c:v>233.61957343985836</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>234.6574571066061</c:v>
+                  <c:v>232.72406902656718</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>233.76210212173265</c:v>
+                  <c:v>231.82848158656543</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>232.86661431284725</c:v>
+                  <c:v>230.93283879108839</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>231.97103794352441</c:v>
+                  <c:v>230.03715909003435</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>231.0754025289778</c:v>
+                  <c:v>229.14145478440597</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>230.17972774875642</c:v>
+                  <c:v>228.24573407534734</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>229.28402672377752</c:v>
+                  <c:v>227.35000243049944</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>228.38830820186053</c:v>
+                  <c:v>226.4542634950501</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>227.49257801512567</c:v>
+                  <c:v>225.55851969916645</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>226.59684005176001</c:v>
+                  <c:v>224.66277266297837</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>225.70109690393582</c:v>
+                  <c:v>223.76702346658075</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>224.80535029978901</c:v>
+                  <c:v>222.87127283004051</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>223.90960139141964</c:v>
+                  <c:v>221.97552123340387</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>223.01385094689854</c:v>
+                  <c:v>221.07976899670237</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>222.11809947827481</c:v>
+                  <c:v>220.18401633329074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4200,7 +4200,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4238,7 +4238,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887936639"/>
@@ -4329,7 +4329,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4367,7 +4367,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822254975"/>
@@ -4409,7 +4409,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4449,7 +4449,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4526,7 +4526,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4569,106 +4569,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1.1574074074074073E-5</c:v>
+                  <c:v>2.7777777777777778E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7361111111111111E-5</c:v>
+                  <c:v>4.1666666666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6041666666666668E-5</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9062500000000001E-5</c:v>
+                  <c:v>9.3749999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8593749999999998E-5</c:v>
+                  <c:v>1.4062499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7890624999999997E-5</c:v>
+                  <c:v>2.1093750000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3183593750000001E-4</c:v>
+                  <c:v>3.1640625000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9775390625000001E-4</c:v>
+                  <c:v>4.7460937500000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9663085937500002E-4</c:v>
+                  <c:v>7.1191406250000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.449462890625E-4</c:v>
+                  <c:v>1.06787109375E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6741943359375003E-4</c:v>
+                  <c:v>1.601806640625E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.001129150390625E-3</c:v>
+                  <c:v>2.4027099609374998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5016937255859376E-3</c:v>
+                  <c:v>3.6040649414062501E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2525405883789063E-3</c:v>
+                  <c:v>5.4060974121093751E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3788108825683594E-3</c:v>
+                  <c:v>8.1091461181640623E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0682163238525389E-3</c:v>
+                  <c:v>0.12163719177246093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6023244857788084E-3</c:v>
+                  <c:v>0.18245578765869142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1403486728668213E-2</c:v>
+                  <c:v>0.27368368148803712</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.710523009300232E-2</c:v>
+                  <c:v>0.41052552223205568</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.565784513950348E-2</c:v>
+                  <c:v>0.61578828334808355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8486767709255215E-2</c:v>
+                  <c:v>0.92368242502212516</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.773015156388283E-2</c:v>
+                  <c:v>1.3855236375331879</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.6595227345824241E-2</c:v>
+                  <c:v>2.0782854562997817</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.12989284101873635</c:v>
+                  <c:v>3.1174281844496727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.19483926152810455</c:v>
+                  <c:v>4.6761422766745095</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.29225889229215679</c:v>
+                  <c:v>7.0142134150117634</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43838833843823521</c:v>
+                  <c:v>10.521320122517645</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65758250765735282</c:v>
+                  <c:v>15.781980183776469</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.98637376148602929</c:v>
+                  <c:v>23.672970275664703</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4795606422290439</c:v>
+                  <c:v>35.509455413497051</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2193409633435657</c:v>
+                  <c:v>53.264183120245576</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3290114450153485</c:v>
+                  <c:v>79.896274680368364</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9935171675230228</c:v>
+                  <c:v>119.84441202055254</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.4902757512845346</c:v>
+                  <c:v>179.76661803082882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4680,106 +4680,106 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>249.65004408130775</c:v>
+                  <c:v>248.76334817442051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>249.3138300386772</c:v>
+                  <c:v>248.16882119297591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>248.84841623216042</c:v>
+                  <c:v>247.48742511891101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>248.26986845701768</c:v>
+                  <c:v>246.74106822284213</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>247.60076055897252</c:v>
+                  <c:v>245.9479488191254</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>246.86341549451177</c:v>
+                  <c:v>245.12201460768591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>246.07669879269133</c:v>
+                  <c:v>244.27344240496586</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>245.25521820064893</c:v>
+                  <c:v>243.4094297358987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>244.40970036944617</c:v>
+                  <c:v>242.53496549229288</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>243.54776277285038</c:v>
+                  <c:v>241.65346242082302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>242.67469944375515</c:v>
+                  <c:v>240.76723491656819</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>241.79413819099713</c:v>
+                  <c:v>239.87784353885425</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>240.90854209111021</c:v>
+                  <c:v>238.98633655360683</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>240.01957322383561</c:v>
+                  <c:v>238.09341633002211</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>239.12834861406566</c:v>
+                  <c:v>237.1995526861304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>238.23561695338952</c:v>
+                  <c:v>236.3050595340961</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>237.3418791572274</c:v>
+                  <c:v>235.41014646032235</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>236.44746996557012</c:v>
+                  <c:v>234.51495332771279</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>235.55261289290513</c:v>
+                  <c:v>233.61957343985836</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>234.6574571066061</c:v>
+                  <c:v>232.72406902656718</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>233.76210212173265</c:v>
+                  <c:v>231.82848158656543</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>232.86661431284725</c:v>
+                  <c:v>230.93283879108839</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>231.97103794352441</c:v>
+                  <c:v>230.03715909003435</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>231.0754025289778</c:v>
+                  <c:v>229.14145478440597</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>230.17972774875642</c:v>
+                  <c:v>228.24573407534734</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>229.28402672377752</c:v>
+                  <c:v>227.35000243049944</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>228.38830820186053</c:v>
+                  <c:v>226.4542634950501</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>227.49257801512567</c:v>
+                  <c:v>225.55851969916645</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>226.59684005176001</c:v>
+                  <c:v>224.66277266297837</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>225.70109690393582</c:v>
+                  <c:v>223.76702346658075</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>224.80535029978901</c:v>
+                  <c:v>222.87127283004051</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>223.90960139141964</c:v>
+                  <c:v>221.97552123340387</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>223.01385094689854</c:v>
+                  <c:v>221.07976899670237</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>222.11809947827481</c:v>
+                  <c:v>220.18401633329074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4824,106 +4824,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1.1574074074074073E-5</c:v>
+                  <c:v>2.7777777777777778E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7361111111111111E-5</c:v>
+                  <c:v>4.1666666666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6041666666666668E-5</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9062500000000001E-5</c:v>
+                  <c:v>9.3749999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8593749999999998E-5</c:v>
+                  <c:v>1.4062499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7890624999999997E-5</c:v>
+                  <c:v>2.1093750000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3183593750000001E-4</c:v>
+                  <c:v>3.1640625000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9775390625000001E-4</c:v>
+                  <c:v>4.7460937500000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9663085937500002E-4</c:v>
+                  <c:v>7.1191406250000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.449462890625E-4</c:v>
+                  <c:v>1.06787109375E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6741943359375003E-4</c:v>
+                  <c:v>1.601806640625E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.001129150390625E-3</c:v>
+                  <c:v>2.4027099609374998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5016937255859376E-3</c:v>
+                  <c:v>3.6040649414062501E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2525405883789063E-3</c:v>
+                  <c:v>5.4060974121093751E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3788108825683594E-3</c:v>
+                  <c:v>8.1091461181640623E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0682163238525389E-3</c:v>
+                  <c:v>0.12163719177246093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6023244857788084E-3</c:v>
+                  <c:v>0.18245578765869142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1403486728668213E-2</c:v>
+                  <c:v>0.27368368148803712</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.710523009300232E-2</c:v>
+                  <c:v>0.41052552223205568</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.565784513950348E-2</c:v>
+                  <c:v>0.61578828334808355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8486767709255215E-2</c:v>
+                  <c:v>0.92368242502212516</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.773015156388283E-2</c:v>
+                  <c:v>1.3855236375331879</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.6595227345824241E-2</c:v>
+                  <c:v>2.0782854562997817</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.12989284101873635</c:v>
+                  <c:v>3.1174281844496727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.19483926152810455</c:v>
+                  <c:v>4.6761422766745095</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.29225889229215679</c:v>
+                  <c:v>7.0142134150117634</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43838833843823521</c:v>
+                  <c:v>10.521320122517645</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65758250765735282</c:v>
+                  <c:v>15.781980183776469</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.98637376148602929</c:v>
+                  <c:v>23.672970275664703</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4795606422290439</c:v>
+                  <c:v>35.509455413497051</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2193409633435657</c:v>
+                  <c:v>53.264183120245576</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3290114450153485</c:v>
+                  <c:v>79.896274680368364</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9935171675230228</c:v>
+                  <c:v>119.84441202055254</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.4902757512845346</c:v>
+                  <c:v>179.76661803082882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4935,106 +4935,106 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>249.65004408130775</c:v>
+                  <c:v>248.76334817442051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>249.3138300386772</c:v>
+                  <c:v>248.16882119297591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>248.84841623216042</c:v>
+                  <c:v>247.48742511891101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>248.26986845701768</c:v>
+                  <c:v>246.74106822284213</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>247.60076055897252</c:v>
+                  <c:v>245.9479488191254</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>246.86341549451177</c:v>
+                  <c:v>245.12201460768591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>246.07669879269133</c:v>
+                  <c:v>244.27344240496586</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>245.25521820064893</c:v>
+                  <c:v>243.4094297358987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>244.40970036944617</c:v>
+                  <c:v>242.53496549229288</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>243.54776277285038</c:v>
+                  <c:v>241.65346242082302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>242.67469944375515</c:v>
+                  <c:v>240.76723491656819</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>241.79413819099713</c:v>
+                  <c:v>239.87784353885425</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>240.90854209111021</c:v>
+                  <c:v>238.98633655360683</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>240.01957322383561</c:v>
+                  <c:v>238.09341633002211</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>239.12834861406566</c:v>
+                  <c:v>237.1995526861304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>238.23561695338952</c:v>
+                  <c:v>236.3050595340961</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>237.3418791572274</c:v>
+                  <c:v>235.41014646032235</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>236.44746996557012</c:v>
+                  <c:v>234.51495332771279</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>235.55261289290513</c:v>
+                  <c:v>233.61957343985836</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>234.6574571066061</c:v>
+                  <c:v>232.72406902656718</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>233.76210212173265</c:v>
+                  <c:v>231.82848158656543</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>232.86661431284725</c:v>
+                  <c:v>230.93283879108839</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>231.97103794352441</c:v>
+                  <c:v>230.03715909003435</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>231.0754025289778</c:v>
+                  <c:v>229.14145478440597</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>230.17972774875642</c:v>
+                  <c:v>228.24573407534734</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>229.28402672377752</c:v>
+                  <c:v>227.35000243049944</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>228.38830820186053</c:v>
+                  <c:v>226.4542634950501</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>227.49257801512567</c:v>
+                  <c:v>225.55851969916645</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>226.59684005176001</c:v>
+                  <c:v>224.66277266297837</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>225.70109690393582</c:v>
+                  <c:v>223.76702346658075</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>224.80535029978901</c:v>
+                  <c:v>222.87127283004051</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>223.90960139141964</c:v>
+                  <c:v>221.97552123340387</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>223.01385094689854</c:v>
+                  <c:v>221.07976899670237</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>222.11809947827481</c:v>
+                  <c:v>220.18401633329074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5134,7 +5134,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5172,7 +5172,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887936639"/>
@@ -5263,7 +5263,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5301,7 +5301,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822254975"/>
@@ -5343,7 +5343,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5383,7 +5383,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5467,7 +5467,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5510,106 +5510,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1.1574074074074073E-5</c:v>
+                  <c:v>2.7777777777777778E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7361111111111111E-5</c:v>
+                  <c:v>4.1666666666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6041666666666668E-5</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9062500000000001E-5</c:v>
+                  <c:v>9.3749999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8593749999999998E-5</c:v>
+                  <c:v>1.4062499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7890624999999997E-5</c:v>
+                  <c:v>2.1093750000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3183593750000001E-4</c:v>
+                  <c:v>3.1640625000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9775390625000001E-4</c:v>
+                  <c:v>4.7460937500000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9663085937500002E-4</c:v>
+                  <c:v>7.1191406250000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.449462890625E-4</c:v>
+                  <c:v>1.06787109375E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6741943359375003E-4</c:v>
+                  <c:v>1.601806640625E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.001129150390625E-3</c:v>
+                  <c:v>2.4027099609374998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5016937255859376E-3</c:v>
+                  <c:v>3.6040649414062501E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2525405883789063E-3</c:v>
+                  <c:v>5.4060974121093751E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3788108825683594E-3</c:v>
+                  <c:v>8.1091461181640623E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0682163238525389E-3</c:v>
+                  <c:v>0.12163719177246093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6023244857788084E-3</c:v>
+                  <c:v>0.18245578765869142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1403486728668213E-2</c:v>
+                  <c:v>0.27368368148803712</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.710523009300232E-2</c:v>
+                  <c:v>0.41052552223205568</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.565784513950348E-2</c:v>
+                  <c:v>0.61578828334808355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8486767709255215E-2</c:v>
+                  <c:v>0.92368242502212516</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.773015156388283E-2</c:v>
+                  <c:v>1.3855236375331879</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.6595227345824241E-2</c:v>
+                  <c:v>2.0782854562997817</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.12989284101873635</c:v>
+                  <c:v>3.1174281844496727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.19483926152810455</c:v>
+                  <c:v>4.6761422766745095</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.29225889229215679</c:v>
+                  <c:v>7.0142134150117634</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43838833843823521</c:v>
+                  <c:v>10.521320122517645</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65758250765735282</c:v>
+                  <c:v>15.781980183776469</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.98637376148602929</c:v>
+                  <c:v>23.672970275664703</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4795606422290439</c:v>
+                  <c:v>35.509455413497051</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2193409633435657</c:v>
+                  <c:v>53.264183120245576</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3290114450153485</c:v>
+                  <c:v>79.896274680368364</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9935171675230228</c:v>
+                  <c:v>119.84441202055254</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.4902757512845346</c:v>
+                  <c:v>179.76661803082882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5621,106 +5621,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.3499559186922454</c:v>
+                  <c:v>1.2366518255794858</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68616996132280406</c:v>
+                  <c:v>1.831178807024088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1515837678395826</c:v>
+                  <c:v>2.5125748810889945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7301315429823205</c:v>
+                  <c:v>3.2589317771578692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3992394410274756</c:v>
+                  <c:v>4.0520511808745994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.13658450548823</c:v>
+                  <c:v>4.8779853923140877</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9233012073086684</c:v>
+                  <c:v>5.7265575950341372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7447817993510739</c:v>
+                  <c:v>6.5905702641013022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5902996305538295</c:v>
+                  <c:v>7.4650345077071165</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4522372271496238</c:v>
+                  <c:v>8.3465375791769816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.325300556244855</c:v>
+                  <c:v>9.2327650834318149</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2058618090028688</c:v>
+                  <c:v>10.12215646114575</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0914579088897938</c:v>
+                  <c:v>11.013663446393167</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9804267761643928</c:v>
+                  <c:v>11.906583669977891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.871651385934342</c:v>
+                  <c:v>12.800447313869597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.764383046610476</c:v>
+                  <c:v>13.694940465903898</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.658120842772604</c:v>
+                  <c:v>14.589853539677648</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.552530034429878</c:v>
+                  <c:v>15.485046672287211</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.447387107094869</c:v>
+                  <c:v>16.380426560141643</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.342542893393897</c:v>
+                  <c:v>17.275930973432821</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.237897878267347</c:v>
+                  <c:v>18.171518413434569</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.133385687152753</c:v>
+                  <c:v>19.067161208911614</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.028962056475592</c:v>
+                  <c:v>19.962840909965649</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.924597471022196</c:v>
+                  <c:v>20.858545215594035</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.82027225124358</c:v>
+                  <c:v>21.754265924652657</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.715973276222485</c:v>
+                  <c:v>22.649997569500556</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.611691798139475</c:v>
+                  <c:v>23.5457365049499</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.507421984874327</c:v>
+                  <c:v>24.441480300833547</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.403159948239988</c:v>
+                  <c:v>25.337227337021631</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.29890309606418</c:v>
+                  <c:v>26.232976533419247</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25.194649700210988</c:v>
+                  <c:v>27.12872716995949</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26.090398608580358</c:v>
+                  <c:v>28.024478766596133</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>26.986149053101457</c:v>
+                  <c:v>28.92023100329763</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.881900521725186</c:v>
+                  <c:v>29.815983666709258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5765,106 +5765,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1.1574074074074073E-5</c:v>
+                  <c:v>2.7777777777777778E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7361111111111111E-5</c:v>
+                  <c:v>4.1666666666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6041666666666668E-5</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9062500000000001E-5</c:v>
+                  <c:v>9.3749999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8593749999999998E-5</c:v>
+                  <c:v>1.4062499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7890624999999997E-5</c:v>
+                  <c:v>2.1093750000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3183593750000001E-4</c:v>
+                  <c:v>3.1640625000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9775390625000001E-4</c:v>
+                  <c:v>4.7460937500000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9663085937500002E-4</c:v>
+                  <c:v>7.1191406250000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.449462890625E-4</c:v>
+                  <c:v>1.06787109375E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6741943359375003E-4</c:v>
+                  <c:v>1.601806640625E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.001129150390625E-3</c:v>
+                  <c:v>2.4027099609374998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5016937255859376E-3</c:v>
+                  <c:v>3.6040649414062501E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2525405883789063E-3</c:v>
+                  <c:v>5.4060974121093751E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3788108825683594E-3</c:v>
+                  <c:v>8.1091461181640623E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0682163238525389E-3</c:v>
+                  <c:v>0.12163719177246093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6023244857788084E-3</c:v>
+                  <c:v>0.18245578765869142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1403486728668213E-2</c:v>
+                  <c:v>0.27368368148803712</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.710523009300232E-2</c:v>
+                  <c:v>0.41052552223205568</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.565784513950348E-2</c:v>
+                  <c:v>0.61578828334808355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8486767709255215E-2</c:v>
+                  <c:v>0.92368242502212516</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.773015156388283E-2</c:v>
+                  <c:v>1.3855236375331879</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.6595227345824241E-2</c:v>
+                  <c:v>2.0782854562997817</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.12989284101873635</c:v>
+                  <c:v>3.1174281844496727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.19483926152810455</c:v>
+                  <c:v>4.6761422766745095</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.29225889229215679</c:v>
+                  <c:v>7.0142134150117634</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43838833843823521</c:v>
+                  <c:v>10.521320122517645</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65758250765735282</c:v>
+                  <c:v>15.781980183776469</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.98637376148602929</c:v>
+                  <c:v>23.672970275664703</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4795606422290439</c:v>
+                  <c:v>35.509455413497051</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2193409633435657</c:v>
+                  <c:v>53.264183120245576</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3290114450153485</c:v>
+                  <c:v>79.896274680368364</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9935171675230228</c:v>
+                  <c:v>119.84441202055254</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.4902757512845346</c:v>
+                  <c:v>179.76661803082882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5876,106 +5876,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.3499559186922454</c:v>
+                  <c:v>1.2366518255794858</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68616996132280406</c:v>
+                  <c:v>1.831178807024088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1515837678395826</c:v>
+                  <c:v>2.5125748810889945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7301315429823205</c:v>
+                  <c:v>3.2589317771578692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3992394410274756</c:v>
+                  <c:v>4.0520511808745994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.13658450548823</c:v>
+                  <c:v>4.8779853923140877</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9233012073086684</c:v>
+                  <c:v>5.7265575950341372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7447817993510739</c:v>
+                  <c:v>6.5905702641013022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5902996305538295</c:v>
+                  <c:v>7.4650345077071165</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4522372271496238</c:v>
+                  <c:v>8.3465375791769816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.325300556244855</c:v>
+                  <c:v>9.2327650834318149</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2058618090028688</c:v>
+                  <c:v>10.12215646114575</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0914579088897938</c:v>
+                  <c:v>11.013663446393167</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9804267761643928</c:v>
+                  <c:v>11.906583669977891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.871651385934342</c:v>
+                  <c:v>12.800447313869597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.764383046610476</c:v>
+                  <c:v>13.694940465903898</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.658120842772604</c:v>
+                  <c:v>14.589853539677648</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.552530034429878</c:v>
+                  <c:v>15.485046672287211</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.447387107094869</c:v>
+                  <c:v>16.380426560141643</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.342542893393897</c:v>
+                  <c:v>17.275930973432821</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.237897878267347</c:v>
+                  <c:v>18.171518413434569</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.133385687152753</c:v>
+                  <c:v>19.067161208911614</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.028962056475592</c:v>
+                  <c:v>19.962840909965649</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.924597471022196</c:v>
+                  <c:v>20.858545215594035</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.82027225124358</c:v>
+                  <c:v>21.754265924652657</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.715973276222485</c:v>
+                  <c:v>22.649997569500556</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.611691798139475</c:v>
+                  <c:v>23.5457365049499</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.507421984874327</c:v>
+                  <c:v>24.441480300833547</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.403159948239988</c:v>
+                  <c:v>25.337227337021631</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.29890309606418</c:v>
+                  <c:v>26.232976533419247</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25.194649700210988</c:v>
+                  <c:v>27.12872716995949</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26.090398608580358</c:v>
+                  <c:v>28.024478766596133</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>26.986149053101457</c:v>
+                  <c:v>28.92023100329763</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.881900521725186</c:v>
+                  <c:v>29.815983666709258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6074,7 +6074,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6112,7 +6112,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887936639"/>
@@ -6217,7 +6217,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6255,7 +6255,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822254975"/>
@@ -6297,7 +6297,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6337,7 +6337,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6421,7 +6421,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6464,106 +6464,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1.1574074074074073E-5</c:v>
+                  <c:v>2.7777777777777778E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7361111111111111E-5</c:v>
+                  <c:v>4.1666666666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6041666666666668E-5</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9062500000000001E-5</c:v>
+                  <c:v>9.3749999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8593749999999998E-5</c:v>
+                  <c:v>1.4062499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7890624999999997E-5</c:v>
+                  <c:v>2.1093750000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3183593750000001E-4</c:v>
+                  <c:v>3.1640625000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9775390625000001E-4</c:v>
+                  <c:v>4.7460937500000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9663085937500002E-4</c:v>
+                  <c:v>7.1191406250000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.449462890625E-4</c:v>
+                  <c:v>1.06787109375E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6741943359375003E-4</c:v>
+                  <c:v>1.601806640625E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.001129150390625E-3</c:v>
+                  <c:v>2.4027099609374998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5016937255859376E-3</c:v>
+                  <c:v>3.6040649414062501E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2525405883789063E-3</c:v>
+                  <c:v>5.4060974121093751E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3788108825683594E-3</c:v>
+                  <c:v>8.1091461181640623E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0682163238525389E-3</c:v>
+                  <c:v>0.12163719177246093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6023244857788084E-3</c:v>
+                  <c:v>0.18245578765869142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1403486728668213E-2</c:v>
+                  <c:v>0.27368368148803712</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.710523009300232E-2</c:v>
+                  <c:v>0.41052552223205568</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.565784513950348E-2</c:v>
+                  <c:v>0.61578828334808355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8486767709255215E-2</c:v>
+                  <c:v>0.92368242502212516</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.773015156388283E-2</c:v>
+                  <c:v>1.3855236375331879</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.6595227345824241E-2</c:v>
+                  <c:v>2.0782854562997817</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.12989284101873635</c:v>
+                  <c:v>3.1174281844496727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.19483926152810455</c:v>
+                  <c:v>4.6761422766745095</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.29225889229215679</c:v>
+                  <c:v>7.0142134150117634</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43838833843823521</c:v>
+                  <c:v>10.521320122517645</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65758250765735282</c:v>
+                  <c:v>15.781980183776469</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.98637376148602929</c:v>
+                  <c:v>23.672970275664703</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4795606422290439</c:v>
+                  <c:v>35.509455413497051</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2193409633435657</c:v>
+                  <c:v>53.264183120245576</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3290114450153485</c:v>
+                  <c:v>79.896274680368364</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9935171675230228</c:v>
+                  <c:v>119.84441202055254</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.4902757512845346</c:v>
+                  <c:v>179.76661803082882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6575,106 +6575,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.3499559186922454</c:v>
+                  <c:v>1.2366518255794858</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68616996132280406</c:v>
+                  <c:v>1.831178807024088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1515837678395826</c:v>
+                  <c:v>2.5125748810889945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7301315429823205</c:v>
+                  <c:v>3.2589317771578692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3992394410274756</c:v>
+                  <c:v>4.0520511808745994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.13658450548823</c:v>
+                  <c:v>4.8779853923140877</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9233012073086684</c:v>
+                  <c:v>5.7265575950341372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7447817993510739</c:v>
+                  <c:v>6.5905702641013022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5902996305538295</c:v>
+                  <c:v>7.4650345077071165</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4522372271496238</c:v>
+                  <c:v>8.3465375791769816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.325300556244855</c:v>
+                  <c:v>9.2327650834318149</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2058618090028688</c:v>
+                  <c:v>10.12215646114575</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0914579088897938</c:v>
+                  <c:v>11.013663446393167</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9804267761643928</c:v>
+                  <c:v>11.906583669977891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.871651385934342</c:v>
+                  <c:v>12.800447313869597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.764383046610476</c:v>
+                  <c:v>13.694940465903898</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.658120842772604</c:v>
+                  <c:v>14.589853539677648</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.552530034429878</c:v>
+                  <c:v>15.485046672287211</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.447387107094869</c:v>
+                  <c:v>16.380426560141643</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.342542893393897</c:v>
+                  <c:v>17.275930973432821</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.237897878267347</c:v>
+                  <c:v>18.171518413434569</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.133385687152753</c:v>
+                  <c:v>19.067161208911614</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.028962056475592</c:v>
+                  <c:v>19.962840909965649</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.924597471022196</c:v>
+                  <c:v>20.858545215594035</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.82027225124358</c:v>
+                  <c:v>21.754265924652657</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.715973276222485</c:v>
+                  <c:v>22.649997569500556</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.611691798139475</c:v>
+                  <c:v>23.5457365049499</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.507421984874327</c:v>
+                  <c:v>24.441480300833547</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.403159948239988</c:v>
+                  <c:v>25.337227337021631</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.29890309606418</c:v>
+                  <c:v>26.232976533419247</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25.194649700210988</c:v>
+                  <c:v>27.12872716995949</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26.090398608580358</c:v>
+                  <c:v>28.024478766596133</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>26.986149053101457</c:v>
+                  <c:v>28.92023100329763</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.881900521725186</c:v>
+                  <c:v>29.815983666709258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6719,106 +6719,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1.1574074074074073E-5</c:v>
+                  <c:v>2.7777777777777778E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7361111111111111E-5</c:v>
+                  <c:v>4.1666666666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6041666666666668E-5</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9062500000000001E-5</c:v>
+                  <c:v>9.3749999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8593749999999998E-5</c:v>
+                  <c:v>1.4062499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7890624999999997E-5</c:v>
+                  <c:v>2.1093750000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3183593750000001E-4</c:v>
+                  <c:v>3.1640625000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9775390625000001E-4</c:v>
+                  <c:v>4.7460937500000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9663085937500002E-4</c:v>
+                  <c:v>7.1191406250000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.449462890625E-4</c:v>
+                  <c:v>1.06787109375E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6741943359375003E-4</c:v>
+                  <c:v>1.601806640625E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.001129150390625E-3</c:v>
+                  <c:v>2.4027099609374998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5016937255859376E-3</c:v>
+                  <c:v>3.6040649414062501E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2525405883789063E-3</c:v>
+                  <c:v>5.4060974121093751E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3788108825683594E-3</c:v>
+                  <c:v>8.1091461181640623E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0682163238525389E-3</c:v>
+                  <c:v>0.12163719177246093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6023244857788084E-3</c:v>
+                  <c:v>0.18245578765869142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1403486728668213E-2</c:v>
+                  <c:v>0.27368368148803712</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.710523009300232E-2</c:v>
+                  <c:v>0.41052552223205568</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.565784513950348E-2</c:v>
+                  <c:v>0.61578828334808355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8486767709255215E-2</c:v>
+                  <c:v>0.92368242502212516</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.773015156388283E-2</c:v>
+                  <c:v>1.3855236375331879</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.6595227345824241E-2</c:v>
+                  <c:v>2.0782854562997817</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.12989284101873635</c:v>
+                  <c:v>3.1174281844496727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.19483926152810455</c:v>
+                  <c:v>4.6761422766745095</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.29225889229215679</c:v>
+                  <c:v>7.0142134150117634</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43838833843823521</c:v>
+                  <c:v>10.521320122517645</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65758250765735282</c:v>
+                  <c:v>15.781980183776469</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.98637376148602929</c:v>
+                  <c:v>23.672970275664703</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4795606422290439</c:v>
+                  <c:v>35.509455413497051</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2193409633435657</c:v>
+                  <c:v>53.264183120245576</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3290114450153485</c:v>
+                  <c:v>79.896274680368364</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9935171675230228</c:v>
+                  <c:v>119.84441202055254</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.4902757512845346</c:v>
+                  <c:v>179.76661803082882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6830,106 +6830,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.3499559186922454</c:v>
+                  <c:v>1.2366518255794858</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68616996132280406</c:v>
+                  <c:v>1.831178807024088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1515837678395826</c:v>
+                  <c:v>2.5125748810889945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7301315429823205</c:v>
+                  <c:v>3.2589317771578692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3992394410274756</c:v>
+                  <c:v>4.0520511808745994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.13658450548823</c:v>
+                  <c:v>4.8779853923140877</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9233012073086684</c:v>
+                  <c:v>5.7265575950341372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7447817993510739</c:v>
+                  <c:v>6.5905702641013022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5902996305538295</c:v>
+                  <c:v>7.4650345077071165</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4522372271496238</c:v>
+                  <c:v>8.3465375791769816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.325300556244855</c:v>
+                  <c:v>9.2327650834318149</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2058618090028688</c:v>
+                  <c:v>10.12215646114575</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0914579088897938</c:v>
+                  <c:v>11.013663446393167</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9804267761643928</c:v>
+                  <c:v>11.906583669977891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.871651385934342</c:v>
+                  <c:v>12.800447313869597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.764383046610476</c:v>
+                  <c:v>13.694940465903898</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.658120842772604</c:v>
+                  <c:v>14.589853539677648</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.552530034429878</c:v>
+                  <c:v>15.485046672287211</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.447387107094869</c:v>
+                  <c:v>16.380426560141643</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.342542893393897</c:v>
+                  <c:v>17.275930973432821</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.237897878267347</c:v>
+                  <c:v>18.171518413434569</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.133385687152753</c:v>
+                  <c:v>19.067161208911614</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.028962056475592</c:v>
+                  <c:v>19.962840909965649</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.924597471022196</c:v>
+                  <c:v>20.858545215594035</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.82027225124358</c:v>
+                  <c:v>21.754265924652657</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.715973276222485</c:v>
+                  <c:v>22.649997569500556</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.611691798139475</c:v>
+                  <c:v>23.5457365049499</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.507421984874327</c:v>
+                  <c:v>24.441480300833547</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.403159948239988</c:v>
+                  <c:v>25.337227337021631</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.29890309606418</c:v>
+                  <c:v>26.232976533419247</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25.194649700210988</c:v>
+                  <c:v>27.12872716995949</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26.090398608580358</c:v>
+                  <c:v>28.024478766596133</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>26.986149053101457</c:v>
+                  <c:v>28.92023100329763</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.881900521725186</c:v>
+                  <c:v>29.815983666709258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7029,7 +7029,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7067,7 +7067,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887936639"/>
@@ -7172,7 +7172,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7210,7 +7210,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822254975"/>
@@ -7252,7 +7252,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7292,7 +7292,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7376,7 +7376,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7419,106 +7419,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1.1574074074074073E-5</c:v>
+                  <c:v>2.7777777777777778E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7361111111111111E-5</c:v>
+                  <c:v>4.1666666666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6041666666666668E-5</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9062500000000001E-5</c:v>
+                  <c:v>9.3749999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8593749999999998E-5</c:v>
+                  <c:v>1.4062499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7890624999999997E-5</c:v>
+                  <c:v>2.1093750000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3183593750000001E-4</c:v>
+                  <c:v>3.1640625000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9775390625000001E-4</c:v>
+                  <c:v>4.7460937500000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9663085937500002E-4</c:v>
+                  <c:v>7.1191406250000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.449462890625E-4</c:v>
+                  <c:v>1.06787109375E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6741943359375003E-4</c:v>
+                  <c:v>1.601806640625E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.001129150390625E-3</c:v>
+                  <c:v>2.4027099609374998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5016937255859376E-3</c:v>
+                  <c:v>3.6040649414062501E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2525405883789063E-3</c:v>
+                  <c:v>5.4060974121093751E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3788108825683594E-3</c:v>
+                  <c:v>8.1091461181640623E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0682163238525389E-3</c:v>
+                  <c:v>0.12163719177246093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6023244857788084E-3</c:v>
+                  <c:v>0.18245578765869142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1403486728668213E-2</c:v>
+                  <c:v>0.27368368148803712</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.710523009300232E-2</c:v>
+                  <c:v>0.41052552223205568</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.565784513950348E-2</c:v>
+                  <c:v>0.61578828334808355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8486767709255215E-2</c:v>
+                  <c:v>0.92368242502212516</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.773015156388283E-2</c:v>
+                  <c:v>1.3855236375331879</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.6595227345824241E-2</c:v>
+                  <c:v>2.0782854562997817</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.12989284101873635</c:v>
+                  <c:v>3.1174281844496727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.19483926152810455</c:v>
+                  <c:v>4.6761422766745095</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.29225889229215679</c:v>
+                  <c:v>7.0142134150117634</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43838833843823521</c:v>
+                  <c:v>10.521320122517645</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65758250765735282</c:v>
+                  <c:v>15.781980183776469</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.98637376148602929</c:v>
+                  <c:v>23.672970275664703</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4795606422290439</c:v>
+                  <c:v>35.509455413497051</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2193409633435657</c:v>
+                  <c:v>53.264183120245576</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3290114450153485</c:v>
+                  <c:v>79.896274680368364</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9935171675230228</c:v>
+                  <c:v>119.84441202055254</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.4902757512845346</c:v>
+                  <c:v>179.76661803082882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7530,106 +7530,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.3499559186922454</c:v>
+                  <c:v>1.2366518255794858</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68616996132280406</c:v>
+                  <c:v>1.831178807024088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1515837678395826</c:v>
+                  <c:v>2.5125748810889945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7301315429823205</c:v>
+                  <c:v>3.2589317771578692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3992394410274756</c:v>
+                  <c:v>4.0520511808745994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.13658450548823</c:v>
+                  <c:v>4.8779853923140877</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9233012073086684</c:v>
+                  <c:v>5.7265575950341372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7447817993510739</c:v>
+                  <c:v>6.5905702641013022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5902996305538295</c:v>
+                  <c:v>7.4650345077071165</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4522372271496238</c:v>
+                  <c:v>8.3465375791769816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.325300556244855</c:v>
+                  <c:v>9.2327650834318149</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2058618090028688</c:v>
+                  <c:v>10.12215646114575</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0914579088897938</c:v>
+                  <c:v>11.013663446393167</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9804267761643928</c:v>
+                  <c:v>11.906583669977891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.871651385934342</c:v>
+                  <c:v>12.800447313869597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.764383046610476</c:v>
+                  <c:v>13.694940465903898</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.658120842772604</c:v>
+                  <c:v>14.589853539677648</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.552530034429878</c:v>
+                  <c:v>15.485046672287211</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.447387107094869</c:v>
+                  <c:v>16.380426560141643</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.342542893393897</c:v>
+                  <c:v>17.275930973432821</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.237897878267347</c:v>
+                  <c:v>18.171518413434569</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.133385687152753</c:v>
+                  <c:v>19.067161208911614</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.028962056475592</c:v>
+                  <c:v>19.962840909965649</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.924597471022196</c:v>
+                  <c:v>20.858545215594035</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.82027225124358</c:v>
+                  <c:v>21.754265924652657</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.715973276222485</c:v>
+                  <c:v>22.649997569500556</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.611691798139475</c:v>
+                  <c:v>23.5457365049499</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.507421984874327</c:v>
+                  <c:v>24.441480300833547</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.403159948239988</c:v>
+                  <c:v>25.337227337021631</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.29890309606418</c:v>
+                  <c:v>26.232976533419247</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25.194649700210988</c:v>
+                  <c:v>27.12872716995949</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26.090398608580358</c:v>
+                  <c:v>28.024478766596133</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>26.986149053101457</c:v>
+                  <c:v>28.92023100329763</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.881900521725186</c:v>
+                  <c:v>29.815983666709258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7674,106 +7674,106 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1.1574074074074073E-5</c:v>
+                  <c:v>2.7777777777777778E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7361111111111111E-5</c:v>
+                  <c:v>4.1666666666666664E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6041666666666668E-5</c:v>
+                  <c:v>6.2500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9062500000000001E-5</c:v>
+                  <c:v>9.3749999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8593749999999998E-5</c:v>
+                  <c:v>1.4062499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7890624999999997E-5</c:v>
+                  <c:v>2.1093750000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3183593750000001E-4</c:v>
+                  <c:v>3.1640625000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9775390625000001E-4</c:v>
+                  <c:v>4.7460937500000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9663085937500002E-4</c:v>
+                  <c:v>7.1191406250000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.449462890625E-4</c:v>
+                  <c:v>1.06787109375E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6741943359375003E-4</c:v>
+                  <c:v>1.601806640625E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.001129150390625E-3</c:v>
+                  <c:v>2.4027099609374998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5016937255859376E-3</c:v>
+                  <c:v>3.6040649414062501E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2525405883789063E-3</c:v>
+                  <c:v>5.4060974121093751E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3788108825683594E-3</c:v>
+                  <c:v>8.1091461181640623E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0682163238525389E-3</c:v>
+                  <c:v>0.12163719177246093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.6023244857788084E-3</c:v>
+                  <c:v>0.18245578765869142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1403486728668213E-2</c:v>
+                  <c:v>0.27368368148803712</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.710523009300232E-2</c:v>
+                  <c:v>0.41052552223205568</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.565784513950348E-2</c:v>
+                  <c:v>0.61578828334808355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8486767709255215E-2</c:v>
+                  <c:v>0.92368242502212516</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.773015156388283E-2</c:v>
+                  <c:v>1.3855236375331879</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.6595227345824241E-2</c:v>
+                  <c:v>2.0782854562997817</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.12989284101873635</c:v>
+                  <c:v>3.1174281844496727</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.19483926152810455</c:v>
+                  <c:v>4.6761422766745095</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.29225889229215679</c:v>
+                  <c:v>7.0142134150117634</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43838833843823521</c:v>
+                  <c:v>10.521320122517645</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65758250765735282</c:v>
+                  <c:v>15.781980183776469</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.98637376148602929</c:v>
+                  <c:v>23.672970275664703</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4795606422290439</c:v>
+                  <c:v>35.509455413497051</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2193409633435657</c:v>
+                  <c:v>53.264183120245576</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3290114450153485</c:v>
+                  <c:v>79.896274680368364</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9935171675230228</c:v>
+                  <c:v>119.84441202055254</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.4902757512845346</c:v>
+                  <c:v>179.76661803082882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7785,106 +7785,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.3499559186922454</c:v>
+                  <c:v>1.2366518255794858</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68616996132280406</c:v>
+                  <c:v>1.831178807024088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1515837678395826</c:v>
+                  <c:v>2.5125748810889945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7301315429823205</c:v>
+                  <c:v>3.2589317771578692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3992394410274756</c:v>
+                  <c:v>4.0520511808745994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.13658450548823</c:v>
+                  <c:v>4.8779853923140877</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9233012073086684</c:v>
+                  <c:v>5.7265575950341372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7447817993510739</c:v>
+                  <c:v>6.5905702641013022</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5902996305538295</c:v>
+                  <c:v>7.4650345077071165</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4522372271496238</c:v>
+                  <c:v>8.3465375791769816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.325300556244855</c:v>
+                  <c:v>9.2327650834318149</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2058618090028688</c:v>
+                  <c:v>10.12215646114575</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.0914579088897938</c:v>
+                  <c:v>11.013663446393167</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9804267761643928</c:v>
+                  <c:v>11.906583669977891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.871651385934342</c:v>
+                  <c:v>12.800447313869597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.764383046610476</c:v>
+                  <c:v>13.694940465903898</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.658120842772604</c:v>
+                  <c:v>14.589853539677648</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.552530034429878</c:v>
+                  <c:v>15.485046672287211</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.447387107094869</c:v>
+                  <c:v>16.380426560141643</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.342542893393897</c:v>
+                  <c:v>17.275930973432821</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.237897878267347</c:v>
+                  <c:v>18.171518413434569</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.133385687152753</c:v>
+                  <c:v>19.067161208911614</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.028962056475592</c:v>
+                  <c:v>19.962840909965649</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.924597471022196</c:v>
+                  <c:v>20.858545215594035</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.82027225124358</c:v>
+                  <c:v>21.754265924652657</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.715973276222485</c:v>
+                  <c:v>22.649997569500556</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.611691798139475</c:v>
+                  <c:v>23.5457365049499</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22.507421984874327</c:v>
+                  <c:v>24.441480300833547</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.403159948239988</c:v>
+                  <c:v>25.337227337021631</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.29890309606418</c:v>
+                  <c:v>26.232976533419247</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25.194649700210988</c:v>
+                  <c:v>27.12872716995949</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26.090398608580358</c:v>
+                  <c:v>28.024478766596133</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>26.986149053101457</c:v>
+                  <c:v>28.92023100329763</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.881900521725186</c:v>
+                  <c:v>29.815983666709258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7984,7 +7984,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8022,7 +8022,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887936639"/>
@@ -8128,7 +8128,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8166,7 +8166,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822254975"/>
@@ -8208,7 +8208,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8248,7 +8248,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12713,9 +12713,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>745671</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>48986</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12762,15 +12762,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>65314</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>10886</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
+          <xdr:colOff>353786</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>59871</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12816,14 +12816,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>433615</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>317501</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -12908,15 +12908,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
+          <xdr:colOff>250371</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>136071</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>762000</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>10886</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12966,15 +12966,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>10886</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>136071</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>582386</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>10886</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13296,10 +13296,10 @@
     </sheetNames>
     <definedNames>
       <definedName name="getUFVersion"/>
-      <definedName name="transient_def_cd"/>
-      <definedName name="transient_def_td"/>
+      <definedName name="transient_cd_from_cs"/>
       <definedName name="transient_pd_radial"/>
       <definedName name="transient_pwf_radial_atma"/>
+      <definedName name="transient_td_from_t"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -13576,28 +13576,28 @@
   </sheetPr>
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.15234375" style="1"/>
+    <col min="2" max="2" width="10.53515625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.15234375" style="1"/>
+    <col min="6" max="6" width="12.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.53515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.84375" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="2" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -13617,10 +13617,10 @@
         <v>0</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -13628,10 +13628,10 @@
         <v>1</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="M4" s="3"/>
       <c r="X4" s="1">
         <v>2</v>
@@ -13640,7 +13640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="M5" s="3"/>
       <c r="X5" s="1">
         <v>3</v>
@@ -13649,7 +13649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="M6" s="3"/>
       <c r="X6" s="1">
         <v>4</v>
@@ -13658,26 +13658,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="I12" s="15" t="str">
         <f>VLOOKUP(model1,$X$2:Y6,2)</f>
@@ -13689,12 +13689,12 @@
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="E14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -13704,7 +13704,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="F15" s="20">
         <v>1.5</v>
       </c>
@@ -13718,7 +13718,7 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
@@ -13730,34 +13730,34 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="K16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="N16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="6" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="17" spans="2:17" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" ht="14.15" x14ac:dyDescent="0.4">
       <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
@@ -13772,42 +13772,42 @@
         <v>1</v>
       </c>
       <c r="G17" s="21">
-        <f>F17/86400</f>
-        <v>1.1574074074074073E-5</v>
+        <f>F17/86400*24</f>
+        <v>2.7777777777777778E-4</v>
       </c>
       <c r="H17" s="22">
-        <f>[1]!transient_def_td(G17,rw,k,por,mu,ct)</f>
-        <v>0.20833333333333329</v>
+        <f>[1]!transient_td_from_t(G17,rw,k,por,mu,ct)</f>
+        <v>0.49999999999999994</v>
       </c>
       <c r="I17" s="23">
         <f>[1]!transient_pd_radial(H17,cd,S,rd,model1)</f>
-        <v>7.9204218425731207E-2</v>
+        <v>0.27988679738808031</v>
       </c>
       <c r="J17" s="23">
         <f>[1]!transient_pd_radial(H17,cd,S,rd,model2)</f>
-        <v>1.2786025869338857E-2</v>
+        <v>0.22030645831546281</v>
       </c>
       <c r="K17" s="24">
         <f>[1]!transient_pwf_radial_atma(G17,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>249.65004408130775</v>
+        <v>248.76334817442051</v>
       </c>
       <c r="L17" s="24">
         <f>[1]!transient_pwf_radial_atma(G17,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>249.65004408130775</v>
+        <v>248.76334817442051</v>
       </c>
       <c r="M17" s="23">
         <f t="shared" ref="M17:M50" si="0">Pi-K17</f>
-        <v>0.3499559186922454</v>
+        <v>1.2366518255794858</v>
       </c>
       <c r="N17" s="23">
         <f t="shared" ref="N17:N50" si="1">Pi-L17</f>
-        <v>0.3499559186922454</v>
+        <v>1.2366518255794858</v>
       </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
@@ -13821,42 +13821,42 @@
         <v>1.5</v>
       </c>
       <c r="G18" s="21">
-        <f t="shared" ref="G18:G50" si="3">F18/86400</f>
-        <v>1.7361111111111111E-5</v>
+        <f t="shared" ref="G18:G50" si="3">F18/86400*24</f>
+        <v>4.1666666666666664E-4</v>
       </c>
       <c r="H18" s="22">
-        <f>[1]!transient_def_td(G18,rw,k,por,mu,ct)</f>
-        <v>0.31249999999999994</v>
+        <f>[1]!transient_td_from_t(G18,rw,k,por,mu,ct)</f>
+        <v>0.74999999999999989</v>
       </c>
       <c r="I18" s="23">
         <f>[1]!transient_pd_radial(H18,cd,S,rd,model1)</f>
-        <v>0.15529828927277139</v>
+        <v>0.41444387267429317</v>
       </c>
       <c r="J18" s="23">
         <f>[1]!transient_pd_radial(H18,cd,S,rd,model2)</f>
-        <v>1.9059966190141608E-2</v>
+        <v>0.30439112418184777</v>
       </c>
       <c r="K18" s="24">
         <f>[1]!transient_pwf_radial_atma(G18,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>249.3138300386772</v>
+        <v>248.16882119297591</v>
       </c>
       <c r="L18" s="24">
         <f>[1]!transient_pwf_radial_atma(G18,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>249.3138300386772</v>
+        <v>248.16882119297591</v>
       </c>
       <c r="M18" s="23">
         <f t="shared" si="0"/>
-        <v>0.68616996132280406</v>
+        <v>1.831178807024088</v>
       </c>
       <c r="N18" s="23">
         <f t="shared" si="1"/>
-        <v>0.68616996132280406</v>
+        <v>1.831178807024088</v>
       </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="2:17" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="14.15" x14ac:dyDescent="0.4">
       <c r="B19" s="7" t="s">
         <v>13</v>
       </c>
@@ -13873,41 +13873,41 @@
       </c>
       <c r="G19" s="21">
         <f t="shared" si="3"/>
-        <v>2.6041666666666668E-5</v>
+        <v>6.2500000000000001E-4</v>
       </c>
       <c r="H19" s="22">
-        <f>[1]!transient_def_td(G19,rw,k,por,mu,ct)</f>
-        <v>0.46874999999999994</v>
+        <f>[1]!transient_td_from_t(G19,rw,k,por,mu,ct)</f>
+        <v>1.1249999999999998</v>
       </c>
       <c r="I19" s="23">
         <f>[1]!transient_pd_radial(H19,cd,S,rd,model1)</f>
-        <v>0.26063366101746743</v>
+        <v>0.56866170584125642</v>
       </c>
       <c r="J19" s="23">
         <f>[1]!transient_pd_radial(H19,cd,S,rd,model2)</f>
-        <v>2.836326805488909E-2</v>
+        <v>0.41308372298703944</v>
       </c>
       <c r="K19" s="24">
         <f>[1]!transient_pwf_radial_atma(G19,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>248.84841623216042</v>
+        <v>247.48742511891101</v>
       </c>
       <c r="L19" s="24">
         <f>[1]!transient_pwf_radial_atma(G19,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>248.84841623216042</v>
+        <v>247.48742511891101</v>
       </c>
       <c r="M19" s="23">
         <f t="shared" si="0"/>
-        <v>1.1515837678395826</v>
+        <v>2.5125748810889945</v>
       </c>
       <c r="N19" s="23">
         <f t="shared" si="1"/>
-        <v>1.1515837678395826</v>
+        <v>2.5125748810889945</v>
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
@@ -13922,41 +13922,41 @@
       </c>
       <c r="G20" s="21">
         <f t="shared" si="3"/>
-        <v>3.9062500000000001E-5</v>
+        <v>9.3749999999999997E-4</v>
       </c>
       <c r="H20" s="22">
-        <f>[1]!transient_def_td(G20,rw,k,por,mu,ct)</f>
-        <v>0.70312499999999989</v>
+        <f>[1]!transient_td_from_t(G20,rw,k,por,mu,ct)</f>
+        <v>1.6874999999999998</v>
       </c>
       <c r="I20" s="23">
         <f>[1]!transient_pd_radial(H20,cd,S,rd,model1)</f>
-        <v>0.39157422211260257</v>
+        <v>0.73758187967541788</v>
       </c>
       <c r="J20" s="23">
         <f>[1]!transient_pd_radial(H20,cd,S,rd,model2)</f>
-        <v>4.2112024531746783E-2</v>
+        <v>0.54901027619189335</v>
       </c>
       <c r="K20" s="24">
         <f>[1]!transient_pwf_radial_atma(G20,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>248.26986845701768</v>
+        <v>246.74106822284213</v>
       </c>
       <c r="L20" s="24">
         <f>[1]!transient_pwf_radial_atma(G20,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>248.26986845701768</v>
+        <v>246.74106822284213</v>
       </c>
       <c r="M20" s="23">
         <f t="shared" si="0"/>
-        <v>1.7301315429823205</v>
+        <v>3.2589317771578692</v>
       </c>
       <c r="N20" s="23">
         <f t="shared" si="1"/>
-        <v>1.7301315429823205</v>
+        <v>3.2589317771578692</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="2:17" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" ht="14.15" x14ac:dyDescent="0.4">
       <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
@@ -13973,41 +13973,41 @@
       </c>
       <c r="G21" s="21">
         <f t="shared" si="3"/>
-        <v>5.8593749999999998E-5</v>
+        <v>1.4062499999999999E-3</v>
       </c>
       <c r="H21" s="22">
-        <f>[1]!transient_def_td(G21,rw,k,por,mu,ct)</f>
-        <v>1.0546874999999998</v>
+        <f>[1]!transient_td_from_t(G21,rw,k,por,mu,ct)</f>
+        <v>2.5312499999999996</v>
       </c>
       <c r="I21" s="23">
         <f>[1]!transient_pd_radial(H21,cd,S,rd,model1)</f>
-        <v>0.54301091821190584</v>
+        <v>0.9170856375327241</v>
       </c>
       <c r="J21" s="23">
         <f>[1]!transient_pd_radial(H21,cd,S,rd,model2)</f>
-        <v>6.2339395369576778E-2</v>
+        <v>0.71266376712947022</v>
       </c>
       <c r="K21" s="24">
         <f>[1]!transient_pwf_radial_atma(G21,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>247.60076055897252</v>
+        <v>245.9479488191254</v>
       </c>
       <c r="L21" s="24">
         <f>[1]!transient_pwf_radial_atma(G21,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>247.60076055897252</v>
+        <v>245.9479488191254</v>
       </c>
       <c r="M21" s="23">
         <f t="shared" si="0"/>
-        <v>2.3992394410274756</v>
+        <v>4.0520511808745994</v>
       </c>
       <c r="N21" s="23">
         <f t="shared" si="1"/>
-        <v>2.3992394410274756</v>
+        <v>4.0520511808745994</v>
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>14</v>
       </c>
@@ -14024,41 +14024,41 @@
       </c>
       <c r="G22" s="21">
         <f t="shared" si="3"/>
-        <v>8.7890624999999997E-5</v>
+        <v>2.1093750000000001E-3</v>
       </c>
       <c r="H22" s="22">
-        <f>[1]!transient_def_td(G22,rw,k,por,mu,ct)</f>
-        <v>1.5820312499999998</v>
+        <f>[1]!transient_td_from_t(G22,rw,k,por,mu,ct)</f>
+        <v>3.7968749999999996</v>
       </c>
       <c r="I22" s="23">
         <f>[1]!transient_pd_radial(H22,cd,S,rd,model1)</f>
-        <v>0.70989147779472594</v>
+        <v>1.1040162484868015</v>
       </c>
       <c r="J22" s="23">
         <f>[1]!transient_pd_radial(H22,cd,S,rd,model2)</f>
-        <v>9.1920749318944672E-2</v>
+        <v>0.90166100429996732</v>
       </c>
       <c r="K22" s="24">
         <f>[1]!transient_pwf_radial_atma(G22,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>246.86341549451177</v>
+        <v>245.12201460768591</v>
       </c>
       <c r="L22" s="24">
         <f>[1]!transient_pwf_radial_atma(G22,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>246.86341549451177</v>
+        <v>245.12201460768591</v>
       </c>
       <c r="M22" s="23">
         <f t="shared" si="0"/>
-        <v>3.13658450548823</v>
+        <v>4.8779853923140877</v>
       </c>
       <c r="N22" s="23">
         <f t="shared" si="1"/>
-        <v>3.13658450548823</v>
+        <v>4.8779853923140877</v>
       </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
@@ -14074,41 +14074,41 @@
       </c>
       <c r="G23" s="21">
         <f t="shared" si="3"/>
-        <v>1.3183593750000001E-4</v>
+        <v>3.1640625000000002E-3</v>
       </c>
       <c r="H23" s="22">
-        <f>[1]!transient_def_td(G23,rw,k,por,mu,ct)</f>
-        <v>2.373046875</v>
+        <f>[1]!transient_td_from_t(G23,rw,k,por,mu,ct)</f>
+        <v>5.6953125</v>
       </c>
       <c r="I23" s="23">
         <f>[1]!transient_pd_radial(H23,cd,S,rd,model1)</f>
-        <v>0.88794613600142003</v>
+        <v>1.2960704316119251</v>
       </c>
       <c r="J23" s="23">
         <f>[1]!transient_pd_radial(H23,cd,S,rd,model2)</f>
-        <v>0.13483750689374574</v>
+        <v>1.1107416626555278</v>
       </c>
       <c r="K23" s="24">
         <f>[1]!transient_pwf_radial_atma(G23,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>246.07669879269133</v>
+        <v>244.27344240496586</v>
       </c>
       <c r="L23" s="24">
         <f>[1]!transient_pwf_radial_atma(G23,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>246.07669879269133</v>
+        <v>244.27344240496586</v>
       </c>
       <c r="M23" s="23">
         <f t="shared" si="0"/>
-        <v>3.9233012073086684</v>
+        <v>5.7265575950341372</v>
       </c>
       <c r="N23" s="23">
         <f t="shared" si="1"/>
-        <v>3.9233012073086684</v>
+        <v>5.7265575950341372</v>
       </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>19</v>
       </c>
@@ -14123,41 +14123,41 @@
       </c>
       <c r="G24" s="21">
         <f t="shared" si="3"/>
-        <v>1.9775390625000001E-4</v>
+        <v>4.7460937500000003E-3</v>
       </c>
       <c r="H24" s="22">
-        <f>[1]!transient_def_td(G24,rw,k,por,mu,ct)</f>
-        <v>3.5595703125</v>
+        <f>[1]!transient_td_from_t(G24,rw,k,por,mu,ct)</f>
+        <v>8.54296875</v>
       </c>
       <c r="I24" s="23">
         <f>[1]!transient_pd_radial(H24,cd,S,rd,model1)</f>
-        <v>1.0738687758806522</v>
+        <v>1.4916191979226228</v>
       </c>
       <c r="J24" s="23">
         <f>[1]!transient_pd_radial(H24,cd,S,rd,model2)</f>
-        <v>0.19643925191405742</v>
+        <v>1.3328057165217615</v>
       </c>
       <c r="K24" s="24">
         <f>[1]!transient_pwf_radial_atma(G24,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>245.25521820064893</v>
+        <v>243.4094297358987</v>
       </c>
       <c r="L24" s="24">
         <f>[1]!transient_pwf_radial_atma(G24,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>245.25521820064893</v>
+        <v>243.4094297358987</v>
       </c>
       <c r="M24" s="23">
         <f t="shared" si="0"/>
-        <v>4.7447817993510739</v>
+        <v>6.5905702641013022</v>
       </c>
       <c r="N24" s="23">
         <f t="shared" si="1"/>
-        <v>4.7447817993510739</v>
+        <v>6.5905702641013022</v>
       </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>15</v>
       </c>
@@ -14174,41 +14174,41 @@
       </c>
       <c r="G25" s="21">
         <f t="shared" si="3"/>
-        <v>2.9663085937500002E-4</v>
+        <v>7.1191406250000009E-3</v>
       </c>
       <c r="H25" s="22">
-        <f>[1]!transient_def_td(G25,rw,k,por,mu,ct)</f>
-        <v>5.33935546875</v>
+        <f>[1]!transient_td_from_t(G25,rw,k,por,mu,ct)</f>
+        <v>12.814453125</v>
       </c>
       <c r="I25" s="23">
         <f>[1]!transient_pd_radial(H25,cd,S,rd,model1)</f>
-        <v>1.265231674487107</v>
+        <v>1.6895334301346925</v>
       </c>
       <c r="J25" s="23">
         <f>[1]!transient_pd_radial(H25,cd,S,rd,model2)</f>
-        <v>0.28360538646279565</v>
+        <v>1.5606944160008425</v>
       </c>
       <c r="K25" s="24">
         <f>[1]!transient_pwf_radial_atma(G25,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>244.40970036944617</v>
+        <v>242.53496549229288</v>
       </c>
       <c r="L25" s="24">
         <f>[1]!transient_pwf_radial_atma(G25,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>244.40970036944617</v>
+        <v>242.53496549229288</v>
       </c>
       <c r="M25" s="23">
         <f t="shared" si="0"/>
-        <v>5.5902996305538295</v>
+        <v>7.4650345077071165</v>
       </c>
       <c r="N25" s="23">
         <f t="shared" si="1"/>
-        <v>5.5902996305538295</v>
+        <v>7.4650345077071165</v>
       </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" ht="14.15" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>18</v>
       </c>
@@ -14224,46 +14224,46 @@
       </c>
       <c r="G26" s="21">
         <f t="shared" si="3"/>
-        <v>4.449462890625E-4</v>
+        <v>1.06787109375E-2</v>
       </c>
       <c r="H26" s="22">
-        <f>[1]!transient_def_td(G26,rw,k,por,mu,ct)</f>
-        <v>8.0090332031249982</v>
+        <f>[1]!transient_td_from_t(G26,rw,k,por,mu,ct)</f>
+        <v>19.2216796875</v>
       </c>
       <c r="I26" s="23">
         <f>[1]!transient_pd_radial(H26,cd,S,rd,model1)</f>
-        <v>1.4603107973813221</v>
+        <v>1.8890407340161577</v>
       </c>
       <c r="J26" s="23">
         <f>[1]!transient_pd_radial(H26,cd,S,rd,model2)</f>
-        <v>0.40461328178503209</v>
+        <v>1.7888487234122294</v>
       </c>
       <c r="K26" s="24">
         <f>[1]!transient_pwf_radial_atma(G26,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>243.54776277285038</v>
+        <v>241.65346242082302</v>
       </c>
       <c r="L26" s="24">
         <f>[1]!transient_pwf_radial_atma(G26,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>243.54776277285038</v>
+        <v>241.65346242082302</v>
       </c>
       <c r="M26" s="23">
         <f t="shared" si="0"/>
-        <v>6.4522372271496238</v>
+        <v>8.3465375791769816</v>
       </c>
       <c r="N26" s="23">
         <f t="shared" si="1"/>
-        <v>6.4522372271496238</v>
+        <v>8.3465375791769816</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="2:17" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" ht="14.15" x14ac:dyDescent="0.4">
       <c r="B27" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="14">
-        <v>5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>2</v>
@@ -14274,164 +14274,164 @@
       </c>
       <c r="G27" s="21">
         <f t="shared" si="3"/>
-        <v>6.6741943359375003E-4</v>
+        <v>1.601806640625E-2</v>
       </c>
       <c r="H27" s="22">
-        <f>[1]!transient_def_td(G27,rw,k,por,mu,ct)</f>
-        <v>12.013549804687498</v>
+        <f>[1]!transient_td_from_t(G27,rw,k,por,mu,ct)</f>
+        <v>28.832519531249996</v>
       </c>
       <c r="I27" s="23">
         <f>[1]!transient_pd_radial(H27,cd,S,rd,model1)</f>
-        <v>1.6579079658348872</v>
+        <v>2.0896173011569372</v>
       </c>
       <c r="J27" s="23">
         <f>[1]!transient_pd_radial(H27,cd,S,rd,model2)</f>
-        <v>0.5684013876229983</v>
+        <v>2.0140386315470096</v>
       </c>
       <c r="K27" s="24">
         <f>[1]!transient_pwf_radial_atma(G27,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>242.67469944375515</v>
+        <v>240.76723491656819</v>
       </c>
       <c r="L27" s="24">
         <f>[1]!transient_pwf_radial_atma(G27,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>242.67469944375515</v>
+        <v>240.76723491656819</v>
       </c>
       <c r="M27" s="23">
         <f t="shared" si="0"/>
-        <v>7.325300556244855</v>
+        <v>9.2327650834318149</v>
       </c>
       <c r="N27" s="23">
         <f t="shared" si="1"/>
-        <v>7.325300556244855</v>
+        <v>9.2327650834318149</v>
       </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F28" s="19">
         <f t="shared" si="2"/>
         <v>86.49755859375</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="3"/>
-        <v>1.001129150390625E-3</v>
+        <v>2.4027099609374998E-2</v>
       </c>
       <c r="H28" s="22">
-        <f>[1]!transient_def_td(G28,rw,k,por,mu,ct)</f>
-        <v>18.020324707031246</v>
+        <f>[1]!transient_td_from_t(G28,rw,k,por,mu,ct)</f>
+        <v>43.248779296874993</v>
       </c>
       <c r="I28" s="23">
         <f>[1]!transient_pd_radial(H28,cd,S,rd,model1)</f>
-        <v>1.8572021113984418</v>
+        <v>2.2909099359826546</v>
       </c>
       <c r="J28" s="23">
         <f>[1]!transient_pd_radial(H28,cd,S,rd,model2)</f>
-        <v>0.78284433937733411</v>
+        <v>2.2350673794317117</v>
       </c>
       <c r="K28" s="24">
         <f>[1]!transient_pwf_radial_atma(G28,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>241.79413819099713</v>
+        <v>239.87784353885425</v>
       </c>
       <c r="L28" s="24">
         <f>[1]!transient_pwf_radial_atma(G28,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>241.79413819099713</v>
+        <v>239.87784353885425</v>
       </c>
       <c r="M28" s="23">
         <f t="shared" si="0"/>
-        <v>8.2058618090028688</v>
+        <v>10.12215646114575</v>
       </c>
       <c r="N28" s="23">
         <f t="shared" si="1"/>
-        <v>8.2058618090028688</v>
+        <v>10.12215646114575</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F29" s="19">
         <f t="shared" si="2"/>
         <v>129.746337890625</v>
       </c>
       <c r="G29" s="21">
         <f t="shared" si="3"/>
-        <v>1.5016937255859376E-3</v>
+        <v>3.6040649414062501E-2</v>
       </c>
       <c r="H29" s="22">
-        <f>[1]!transient_def_td(G29,rw,k,por,mu,ct)</f>
-        <v>27.030487060546875</v>
+        <f>[1]!transient_td_from_t(G29,rw,k,por,mu,ct)</f>
+        <v>64.8731689453125</v>
       </c>
       <c r="I29" s="23">
         <f>[1]!transient_pd_radial(H29,cd,S,rd,model1)</f>
-        <v>2.0576357751425398</v>
+        <v>2.4926813883743333</v>
       </c>
       <c r="J29" s="23">
         <f>[1]!transient_pd_radial(H29,cd,S,rd,model2)</f>
-        <v>1.05181694325438</v>
+        <v>2.4519888878567144</v>
       </c>
       <c r="K29" s="24">
         <f>[1]!transient_pwf_radial_atma(G29,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>240.90854209111021</v>
+        <v>238.98633655360683</v>
       </c>
       <c r="L29" s="24">
         <f>[1]!transient_pwf_radial_atma(G29,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>240.90854209111021</v>
+        <v>238.98633655360683</v>
       </c>
       <c r="M29" s="23">
         <f t="shared" si="0"/>
-        <v>9.0914579088897938</v>
+        <v>11.013663446393167</v>
       </c>
       <c r="N29" s="23">
         <f t="shared" si="1"/>
-        <v>9.0914579088897938</v>
+        <v>11.013663446393167</v>
       </c>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F30" s="19">
         <f t="shared" si="2"/>
         <v>194.6195068359375</v>
       </c>
       <c r="G30" s="21">
         <f t="shared" si="3"/>
-        <v>2.2525405883789063E-3</v>
+        <v>5.4060974121093751E-2</v>
       </c>
       <c r="H30" s="22">
-        <f>[1]!transient_def_td(G30,rw,k,por,mu,ct)</f>
-        <v>40.545730590820305</v>
+        <f>[1]!transient_td_from_t(G30,rw,k,por,mu,ct)</f>
+        <v>97.309753417968736</v>
       </c>
       <c r="I30" s="23">
         <f>[1]!transient_pd_radial(H30,cd,S,rd,model1)</f>
-        <v>2.2588327847556591</v>
+        <v>2.6947726937302865</v>
       </c>
       <c r="J30" s="23">
         <f>[1]!transient_pd_radial(H30,cd,S,rd,model2)</f>
-        <v>1.3715038614791411</v>
+        <v>2.6654000160851865</v>
       </c>
       <c r="K30" s="24">
         <f>[1]!transient_pwf_radial_atma(G30,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>240.01957322383561</v>
+        <v>238.09341633002211</v>
       </c>
       <c r="L30" s="24">
         <f>[1]!transient_pwf_radial_atma(G30,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>240.01957322383561</v>
+        <v>238.09341633002211</v>
       </c>
       <c r="M30" s="23">
         <f t="shared" si="0"/>
-        <v>9.9804267761643928</v>
+        <v>11.906583669977891</v>
       </c>
       <c r="N30" s="23">
         <f t="shared" si="1"/>
-        <v>9.9804267761643928</v>
+        <v>11.906583669977891</v>
       </c>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="2:17" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="14.15" x14ac:dyDescent="0.4">
       <c r="B31" s="7" t="s">
         <v>22</v>
       </c>
@@ -14446,47 +14446,47 @@
       </c>
       <c r="G31" s="21">
         <f t="shared" si="3"/>
-        <v>3.3788108825683594E-3</v>
+        <v>8.1091461181640623E-2</v>
       </c>
       <c r="H31" s="22">
-        <f>[1]!transient_def_td(G31,rw,k,por,mu,ct)</f>
-        <v>60.818595886230462</v>
+        <f>[1]!transient_td_from_t(G31,rw,k,por,mu,ct)</f>
+        <v>145.9646301269531</v>
       </c>
       <c r="I31" s="23">
         <f>[1]!transient_pd_radial(H31,cd,S,rd,model1)</f>
-        <v>2.4605403281582325</v>
+        <v>2.8970775198872012</v>
       </c>
       <c r="J31" s="23">
         <f>[1]!transient_pd_radial(H31,cd,S,rd,model2)</f>
-        <v>1.7277277692282951</v>
+        <v>2.8760201848635916</v>
       </c>
       <c r="K31" s="24">
         <f>[1]!transient_pwf_radial_atma(G31,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>239.12834861406566</v>
+        <v>237.1995526861304</v>
       </c>
       <c r="L31" s="24">
         <f>[1]!transient_pwf_radial_atma(G31,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>239.12834861406566</v>
+        <v>237.1995526861304</v>
       </c>
       <c r="M31" s="23">
         <f t="shared" si="0"/>
-        <v>10.871651385934342</v>
+        <v>12.800447313869597</v>
       </c>
       <c r="N31" s="23">
         <f t="shared" si="1"/>
-        <v>10.871651385934342</v>
+        <v>12.800447313869597</v>
       </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="2:17" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="14.15" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="17">
-        <f>[1]!transient_def_cd(Cs,rw,h,por,ct)</f>
-        <v>15.899999999999997</v>
+        <f>[1]!transient_cd_from_cs(Cs,rw,h,por,ct)</f>
+        <v>1.5899999999999999</v>
       </c>
       <c r="D32" s="8"/>
       <c r="F32" s="19">
@@ -14495,767 +14495,767 @@
       </c>
       <c r="G32" s="21">
         <f t="shared" si="3"/>
-        <v>5.0682163238525389E-3</v>
+        <v>0.12163719177246093</v>
       </c>
       <c r="H32" s="22">
-        <f>[1]!transient_def_td(G32,rw,k,por,mu,ct)</f>
-        <v>91.227893829345689</v>
+        <f>[1]!transient_td_from_t(G32,rw,k,por,mu,ct)</f>
+        <v>218.94694519042966</v>
       </c>
       <c r="I32" s="23">
         <f>[1]!transient_pd_radial(H32,cd,S,rd,model1)</f>
-        <v>2.6625889567740546</v>
+        <v>3.0995248202751928</v>
       </c>
       <c r="J32" s="23">
         <f>[1]!transient_pd_radial(H32,cd,S,rd,model2)</f>
-        <v>2.0972350956853916</v>
+        <v>3.0845074964672676</v>
       </c>
       <c r="K32" s="24">
         <f>[1]!transient_pwf_radial_atma(G32,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>238.23561695338952</v>
+        <v>236.3050595340961</v>
       </c>
       <c r="L32" s="24">
         <f>[1]!transient_pwf_radial_atma(G32,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>238.23561695338952</v>
+        <v>236.3050595340961</v>
       </c>
       <c r="M32" s="23">
         <f t="shared" si="0"/>
-        <v>11.764383046610476</v>
+        <v>13.694940465903898</v>
       </c>
       <c r="N32" s="23">
         <f t="shared" si="1"/>
-        <v>11.764383046610476</v>
+        <v>13.694940465903898</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F33" s="19">
         <f t="shared" si="2"/>
         <v>656.84083557128906</v>
       </c>
       <c r="G33" s="21">
         <f t="shared" si="3"/>
-        <v>7.6023244857788084E-3</v>
+        <v>0.18245578765869142</v>
       </c>
       <c r="H33" s="22">
-        <f>[1]!transient_def_td(G33,rw,k,por,mu,ct)</f>
-        <v>136.84184074401853</v>
+        <f>[1]!transient_td_from_t(G33,rw,k,por,mu,ct)</f>
+        <v>328.42041778564453</v>
       </c>
       <c r="I33" s="23">
         <f>[1]!transient_pd_radial(H33,cd,S,rd,model1)</f>
-        <v>2.8648653002834972</v>
+        <v>3.3020671599849836</v>
       </c>
       <c r="J33" s="23">
         <f>[1]!transient_pd_radial(H33,cd,S,rd,model2)</f>
-        <v>2.4547339499586087</v>
+        <v>3.291402531125641</v>
       </c>
       <c r="K33" s="24">
         <f>[1]!transient_pwf_radial_atma(G33,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>237.3418791572274</v>
+        <v>235.41014646032235</v>
       </c>
       <c r="L33" s="24">
         <f>[1]!transient_pwf_radial_atma(G33,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>237.3418791572274</v>
+        <v>235.41014646032235</v>
       </c>
       <c r="M33" s="23">
         <f t="shared" si="0"/>
-        <v>12.658120842772604</v>
+        <v>14.589853539677648</v>
       </c>
       <c r="N33" s="23">
         <f t="shared" si="1"/>
-        <v>12.658120842772604</v>
+        <v>14.589853539677648</v>
       </c>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F34" s="19">
         <f t="shared" si="2"/>
         <v>985.26125335693359</v>
       </c>
       <c r="G34" s="21">
         <f t="shared" si="3"/>
-        <v>1.1403486728668213E-2</v>
+        <v>0.27368368148803712</v>
       </c>
       <c r="H34" s="22">
-        <f>[1]!transient_def_td(G34,rw,k,por,mu,ct)</f>
-        <v>205.2627611160278</v>
+        <f>[1]!transient_td_from_t(G34,rw,k,por,mu,ct)</f>
+        <v>492.63062667846674</v>
       </c>
       <c r="I34" s="23">
         <f>[1]!transient_pd_radial(H34,cd,S,rd,model1)</f>
-        <v>3.0672935982323657</v>
+        <v>3.5046728843670132</v>
       </c>
       <c r="J34" s="23">
         <f>[1]!transient_pd_radial(H34,cd,S,rd,model2)</f>
-        <v>2.7826696238298609</v>
+        <v>3.4971264119449188</v>
       </c>
       <c r="K34" s="24">
         <f>[1]!transient_pwf_radial_atma(G34,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>236.44746996557012</v>
+        <v>234.51495332771279</v>
       </c>
       <c r="L34" s="24">
         <f>[1]!transient_pwf_radial_atma(G34,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>236.44746996557012</v>
+        <v>234.51495332771279</v>
       </c>
       <c r="M34" s="23">
         <f t="shared" si="0"/>
-        <v>13.552530034429878</v>
+        <v>15.485046672287211</v>
       </c>
       <c r="N34" s="23">
         <f t="shared" si="1"/>
-        <v>13.552530034429878</v>
+        <v>15.485046672287211</v>
       </c>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F35" s="19">
         <f t="shared" si="2"/>
         <v>1477.8918800354004</v>
       </c>
       <c r="G35" s="21">
         <f t="shared" si="3"/>
-        <v>1.710523009300232E-2</v>
+        <v>0.41052552223205568</v>
       </c>
       <c r="H35" s="22">
-        <f>[1]!transient_def_td(G35,rw,k,por,mu,ct)</f>
-        <v>307.89414167404175</v>
+        <f>[1]!transient_td_from_t(G35,rw,k,por,mu,ct)</f>
+        <v>738.9459400177002</v>
       </c>
       <c r="I35" s="23">
         <f>[1]!transient_pd_radial(H35,cd,S,rd,model1)</f>
-        <v>3.2698232634199842</v>
+        <v>3.7073208763673797</v>
       </c>
       <c r="J35" s="23">
         <f>[1]!transient_pd_radial(H35,cd,S,rd,model2)</f>
-        <v>3.076459640480607</v>
+        <v>3.7019975987932412</v>
       </c>
       <c r="K35" s="24">
         <f>[1]!transient_pwf_radial_atma(G35,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>235.55261289290513</v>
+        <v>233.61957343985836</v>
       </c>
       <c r="L35" s="24">
         <f>[1]!transient_pwf_radial_atma(G35,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>235.55261289290513</v>
+        <v>233.61957343985836</v>
       </c>
       <c r="M35" s="23">
         <f t="shared" si="0"/>
-        <v>14.447387107094869</v>
+        <v>16.380426560141643</v>
       </c>
       <c r="N35" s="23">
         <f t="shared" si="1"/>
-        <v>14.447387107094869</v>
+        <v>16.380426560141643</v>
       </c>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F36" s="19">
         <f t="shared" si="2"/>
         <v>2216.8378200531006</v>
       </c>
       <c r="G36" s="21">
         <f t="shared" si="3"/>
-        <v>2.565784513950348E-2</v>
+        <v>0.61578828334808355</v>
       </c>
       <c r="H36" s="22">
-        <f>[1]!transient_def_td(G36,rw,k,por,mu,ct)</f>
-        <v>461.84121251106257</v>
+        <f>[1]!transient_td_from_t(G36,rw,k,por,mu,ct)</f>
+        <v>1108.4189100265503</v>
       </c>
       <c r="I36" s="23">
         <f>[1]!transient_pd_radial(H36,cd,S,rd,model1)</f>
-        <v>3.4724205353507833</v>
+        <v>3.9099970517456168</v>
       </c>
       <c r="J36" s="23">
         <f>[1]!transient_pd_radial(H36,cd,S,rd,model2)</f>
-        <v>3.341404112354212</v>
+        <v>3.9062525624176487</v>
       </c>
       <c r="K36" s="24">
         <f>[1]!transient_pwf_radial_atma(G36,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>234.6574571066061</v>
+        <v>232.72406902656718</v>
       </c>
       <c r="L36" s="24">
         <f>[1]!transient_pwf_radial_atma(G36,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>234.6574571066061</v>
+        <v>232.72406902656718</v>
       </c>
       <c r="M36" s="23">
         <f t="shared" si="0"/>
-        <v>15.342542893393897</v>
+        <v>17.275930973432821</v>
       </c>
       <c r="N36" s="23">
         <f t="shared" si="1"/>
-        <v>15.342542893393897</v>
+        <v>17.275930973432821</v>
       </c>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F37" s="19">
         <f t="shared" si="2"/>
         <v>3325.2567300796509</v>
       </c>
       <c r="G37" s="21">
         <f t="shared" si="3"/>
-        <v>3.8486767709255215E-2</v>
+        <v>0.92368242502212516</v>
       </c>
       <c r="H37" s="22">
-        <f>[1]!transient_def_td(G37,rw,k,por,mu,ct)</f>
-        <v>692.76181876659382</v>
+        <f>[1]!transient_td_from_t(G37,rw,k,por,mu,ct)</f>
+        <v>1662.628365039825</v>
       </c>
       <c r="I37" s="23">
         <f>[1]!transient_pd_radial(H37,cd,S,rd,model1)</f>
-        <v>3.6750628911523076</v>
+        <v>4.11269201824972</v>
       </c>
       <c r="J37" s="23">
         <f>[1]!transient_pd_radial(H37,cd,S,rd,model2)</f>
-        <v>3.5858045697968919</v>
+        <v>4.1100648080027895</v>
       </c>
       <c r="K37" s="24">
         <f>[1]!transient_pwf_radial_atma(G37,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>233.76210212173265</v>
+        <v>231.82848158656543</v>
       </c>
       <c r="L37" s="24">
         <f>[1]!transient_pwf_radial_atma(G37,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>233.76210212173265</v>
+        <v>231.82848158656543</v>
       </c>
       <c r="M37" s="23">
         <f t="shared" si="0"/>
-        <v>16.237897878267347</v>
+        <v>18.171518413434569</v>
       </c>
       <c r="N37" s="23">
         <f t="shared" si="1"/>
-        <v>16.237897878267347</v>
+        <v>18.171518413434569</v>
       </c>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F38" s="19">
         <f t="shared" si="2"/>
         <v>4987.8850951194763</v>
       </c>
       <c r="G38" s="21">
         <f t="shared" si="3"/>
-        <v>5.773015156388283E-2</v>
+        <v>1.3855236375331879</v>
       </c>
       <c r="H38" s="22">
-        <f>[1]!transient_def_td(G38,rw,k,por,mu,ct)</f>
-        <v>1039.1427281498909</v>
+        <f>[1]!transient_td_from_t(G38,rw,k,por,mu,ct)</f>
+        <v>2493.9425475597377</v>
       </c>
       <c r="I38" s="23">
         <f>[1]!transient_pd_radial(H38,cd,S,rd,model1)</f>
-        <v>3.8777353085172797</v>
+        <v>4.3153995131521841</v>
       </c>
       <c r="J38" s="23">
         <f>[1]!transient_pd_radial(H38,cd,S,rd,model2)</f>
-        <v>3.8165585856550024</v>
+        <v>4.3135605312563712</v>
       </c>
       <c r="K38" s="24">
         <f>[1]!transient_pwf_radial_atma(G38,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>232.86661431284725</v>
+        <v>230.93283879108839</v>
       </c>
       <c r="L38" s="24">
         <f>[1]!transient_pwf_radial_atma(G38,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>232.86661431284725</v>
+        <v>230.93283879108839</v>
       </c>
       <c r="M38" s="23">
         <f t="shared" si="0"/>
-        <v>17.133385687152753</v>
+        <v>19.067161208911614</v>
       </c>
       <c r="N38" s="23">
         <f t="shared" si="1"/>
-        <v>17.133385687152753</v>
+        <v>19.067161208911614</v>
       </c>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F39" s="19">
         <f t="shared" si="2"/>
         <v>7481.8276426792145</v>
       </c>
       <c r="G39" s="21">
         <f t="shared" si="3"/>
-        <v>8.6595227345824241E-2</v>
+        <v>2.0782854562997817</v>
       </c>
       <c r="H39" s="22">
-        <f>[1]!transient_def_td(G39,rw,k,por,mu,ct)</f>
-        <v>1558.7140922248361</v>
+        <f>[1]!transient_td_from_t(G39,rw,k,por,mu,ct)</f>
+        <v>3740.9138213396063</v>
       </c>
       <c r="I39" s="23">
         <f>[1]!transient_pd_radial(H39,cd,S,rd,model1)</f>
-        <v>4.0804277694359001</v>
+        <v>4.5181153607563003</v>
       </c>
       <c r="J39" s="23">
         <f>[1]!transient_pd_radial(H39,cd,S,rd,model2)</f>
-        <v>4.0383127157983836</v>
+        <v>4.5168309034197591</v>
       </c>
       <c r="K39" s="24">
         <f>[1]!transient_pwf_radial_atma(G39,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>231.97103794352441</v>
+        <v>230.03715909003435</v>
       </c>
       <c r="L39" s="24">
         <f>[1]!transient_pwf_radial_atma(G39,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>231.97103794352441</v>
+        <v>230.03715909003435</v>
       </c>
       <c r="M39" s="23">
         <f t="shared" si="0"/>
-        <v>18.028962056475592</v>
+        <v>19.962840909965649</v>
       </c>
       <c r="N39" s="23">
         <f t="shared" si="1"/>
-        <v>18.028962056475592</v>
+        <v>19.962840909965649</v>
       </c>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F40" s="19">
         <f t="shared" si="2"/>
         <v>11222.741464018822</v>
       </c>
       <c r="G40" s="21">
         <f t="shared" si="3"/>
-        <v>0.12989284101873635</v>
+        <v>3.1174281844496727</v>
       </c>
       <c r="H40" s="22">
-        <f>[1]!transient_def_td(G40,rw,k,por,mu,ct)</f>
-        <v>2338.0711383372541</v>
+        <f>[1]!transient_td_from_t(G40,rw,k,por,mu,ct)</f>
+        <v>5611.3707320094099</v>
       </c>
       <c r="I40" s="23">
         <f>[1]!transient_pd_radial(H40,cd,S,rd,model1)</f>
-        <v>4.2831335938398984</v>
+        <v>4.7208367770220079</v>
       </c>
       <c r="J40" s="23">
         <f>[1]!transient_pd_radial(H40,cd,S,rd,model2)</f>
-        <v>4.2540563292131992</v>
+        <v>4.7199414306815015</v>
       </c>
       <c r="K40" s="24">
         <f>[1]!transient_pwf_radial_atma(G40,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>231.0754025289778</v>
+        <v>229.14145478440597</v>
       </c>
       <c r="L40" s="24">
         <f>[1]!transient_pwf_radial_atma(G40,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>231.0754025289778</v>
+        <v>229.14145478440597</v>
       </c>
       <c r="M40" s="23">
         <f t="shared" si="0"/>
-        <v>18.924597471022196</v>
+        <v>20.858545215594035</v>
       </c>
       <c r="N40" s="23">
         <f t="shared" si="1"/>
-        <v>18.924597471022196</v>
+        <v>20.858545215594035</v>
       </c>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F41" s="19">
         <f t="shared" si="2"/>
         <v>16834.112196028233</v>
       </c>
       <c r="G41" s="21">
         <f t="shared" si="3"/>
-        <v>0.19483926152810455</v>
+        <v>4.6761422766745095</v>
       </c>
       <c r="H41" s="22">
-        <f>[1]!transient_def_td(G41,rw,k,por,mu,ct)</f>
-        <v>3507.1067075058813</v>
+        <f>[1]!transient_td_from_t(G41,rw,k,por,mu,ct)</f>
+        <v>8417.0560980141163</v>
       </c>
       <c r="I41" s="23">
         <f>[1]!transient_pd_radial(H41,cd,S,rd,model1)</f>
-        <v>4.4858483277303032</v>
+        <v>4.923561905814922</v>
       </c>
       <c r="J41" s="23">
         <f>[1]!transient_pd_radial(H41,cd,S,rd,model2)</f>
-        <v>4.4657377888943302</v>
+        <v>4.9229389591346262</v>
       </c>
       <c r="K41" s="24">
         <f>[1]!transient_pwf_radial_atma(G41,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>230.17972774875642</v>
+        <v>228.24573407534734</v>
       </c>
       <c r="L41" s="24">
         <f>[1]!transient_pwf_radial_atma(G41,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>230.17972774875642</v>
+        <v>228.24573407534734</v>
       </c>
       <c r="M41" s="23">
         <f t="shared" si="0"/>
-        <v>19.82027225124358</v>
+        <v>21.754265924652657</v>
       </c>
       <c r="N41" s="23">
         <f t="shared" si="1"/>
-        <v>19.82027225124358</v>
+        <v>21.754265924652657</v>
       </c>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F42" s="19">
         <f t="shared" si="2"/>
         <v>25251.168294042349</v>
       </c>
       <c r="G42" s="21">
         <f t="shared" si="3"/>
-        <v>0.29225889229215679</v>
+        <v>7.0142134150117634</v>
       </c>
       <c r="H42" s="22">
-        <f>[1]!transient_def_td(G42,rw,k,por,mu,ct)</f>
-        <v>5260.6600612588218</v>
+        <f>[1]!transient_td_from_t(G42,rw,k,por,mu,ct)</f>
+        <v>12625.584147021173</v>
       </c>
       <c r="I42" s="23">
         <f>[1]!transient_pd_radial(H42,cd,S,rd,model1)</f>
-        <v>4.6885690014988395</v>
+        <v>5.1262895096642609</v>
       </c>
       <c r="J42" s="23">
         <f>[1]!transient_pd_radial(H42,cd,S,rd,model2)</f>
-        <v>4.6746488782082452</v>
+        <v>5.1258568448683945</v>
       </c>
       <c r="K42" s="24">
         <f>[1]!transient_pwf_radial_atma(G42,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>229.28402672377752</v>
+        <v>227.35000243049944</v>
       </c>
       <c r="L42" s="24">
         <f>[1]!transient_pwf_radial_atma(G42,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>229.28402672377752</v>
+        <v>227.35000243049944</v>
       </c>
       <c r="M42" s="23">
         <f t="shared" si="0"/>
-        <v>20.715973276222485</v>
+        <v>22.649997569500556</v>
       </c>
       <c r="N42" s="23">
         <f t="shared" si="1"/>
-        <v>20.715973276222485</v>
+        <v>22.649997569500556</v>
       </c>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F43" s="19">
         <f t="shared" si="2"/>
         <v>37876.752441063523</v>
       </c>
       <c r="G43" s="21">
         <f t="shared" si="3"/>
-        <v>0.43838833843823521</v>
+        <v>10.521320122517645</v>
       </c>
       <c r="H43" s="22">
-        <f>[1]!transient_def_td(G43,rw,k,por,mu,ct)</f>
-        <v>7890.9900918882331</v>
+        <f>[1]!transient_td_from_t(G43,rw,k,por,mu,ct)</f>
+        <v>18938.376220531758</v>
       </c>
       <c r="I43" s="23">
         <f>[1]!transient_pd_radial(H43,cd,S,rd,model1)</f>
-        <v>4.8912936352841445</v>
+        <v>5.3290187635682349</v>
       </c>
       <c r="J43" s="23">
         <f>[1]!transient_pd_radial(H43,cd,S,rd,model2)</f>
-        <v>4.881657213481958</v>
+        <v>5.3287187546957284</v>
       </c>
       <c r="K43" s="24">
         <f>[1]!transient_pwf_radial_atma(G43,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>228.38830820186053</v>
+        <v>226.4542634950501</v>
       </c>
       <c r="L43" s="24">
         <f>[1]!transient_pwf_radial_atma(G43,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>228.38830820186053</v>
+        <v>226.4542634950501</v>
       </c>
       <c r="M43" s="23">
         <f t="shared" si="0"/>
-        <v>21.611691798139475</v>
+        <v>23.5457365049499</v>
       </c>
       <c r="N43" s="23">
         <f t="shared" si="1"/>
-        <v>21.611691798139475</v>
+        <v>23.5457365049499</v>
       </c>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F44" s="19">
         <f t="shared" si="2"/>
         <v>56815.128661595285</v>
       </c>
       <c r="G44" s="21">
         <f t="shared" si="3"/>
-        <v>0.65758250765735282</v>
+        <v>15.781980183776469</v>
       </c>
       <c r="H44" s="22">
-        <f>[1]!transient_def_td(G44,rw,k,por,mu,ct)</f>
-        <v>11836.485137832349</v>
+        <f>[1]!transient_td_from_t(G44,rw,k,por,mu,ct)</f>
+        <v>28407.564330797639</v>
       </c>
       <c r="I44" s="23">
         <f>[1]!transient_pd_radial(H44,cd,S,rd,model1)</f>
-        <v>5.0940209091241906</v>
+        <v>5.5317491175161928</v>
       </c>
       <c r="J44" s="23">
         <f>[1]!transient_pd_radial(H44,cd,S,rd,model2)</f>
-        <v>5.0873521502944641</v>
+        <v>5.531541416363325</v>
       </c>
       <c r="K44" s="24">
         <f>[1]!transient_pwf_radial_atma(G44,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>227.49257801512567</v>
+        <v>225.55851969916645</v>
       </c>
       <c r="L44" s="24">
         <f>[1]!transient_pwf_radial_atma(G44,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>227.49257801512567</v>
+        <v>225.55851969916645</v>
       </c>
       <c r="M44" s="23">
         <f t="shared" si="0"/>
-        <v>22.507421984874327</v>
+        <v>24.441480300833547</v>
       </c>
       <c r="N44" s="23">
         <f t="shared" si="1"/>
-        <v>22.507421984874327</v>
+        <v>24.441480300833547</v>
       </c>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F45" s="19">
         <f t="shared" si="2"/>
         <v>85222.692992392927</v>
       </c>
       <c r="G45" s="21">
         <f t="shared" si="3"/>
-        <v>0.98637376148602929</v>
+        <v>23.672970275664703</v>
       </c>
       <c r="H45" s="22">
-        <f>[1]!transient_def_td(G45,rw,k,por,mu,ct)</f>
-        <v>17754.727706748527</v>
+        <f>[1]!transient_td_from_t(G45,rw,k,por,mu,ct)</f>
+        <v>42611.346496196456</v>
       </c>
       <c r="I45" s="23">
         <f>[1]!transient_pd_radial(H45,cd,S,rd,model1)</f>
-        <v>5.2967499430200924</v>
+        <v>5.7344802048301702</v>
       </c>
       <c r="J45" s="23">
         <f>[1]!transient_pd_radial(H45,cd,S,rd,model2)</f>
-        <v>5.2921377423335798</v>
+        <v>5.7343366233690176</v>
       </c>
       <c r="K45" s="24">
         <f>[1]!transient_pwf_radial_atma(G45,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>226.59684005176001</v>
+        <v>224.66277266297837</v>
       </c>
       <c r="L45" s="24">
         <f>[1]!transient_pwf_radial_atma(G45,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>226.59684005176001</v>
+        <v>224.66277266297837</v>
       </c>
       <c r="M45" s="23">
         <f t="shared" si="0"/>
-        <v>23.403159948239988</v>
+        <v>25.337227337021631</v>
       </c>
       <c r="N45" s="23">
         <f t="shared" si="1"/>
-        <v>23.403159948239988</v>
+        <v>25.337227337021631</v>
       </c>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F46" s="19">
         <f t="shared" si="2"/>
         <v>127834.03948858939</v>
       </c>
       <c r="G46" s="21">
         <f t="shared" si="3"/>
-        <v>1.4795606422290439</v>
+        <v>35.509455413497051</v>
       </c>
       <c r="H46" s="22">
-        <f>[1]!transient_def_td(G46,rw,k,por,mu,ct)</f>
-        <v>26632.091560122786</v>
+        <f>[1]!transient_td_from_t(G46,rw,k,por,mu,ct)</f>
+        <v>63917.019744294681</v>
       </c>
       <c r="I46" s="23">
         <f>[1]!transient_pd_radial(H46,cd,S,rd,model1)</f>
-        <v>5.4994801502951702</v>
+        <v>5.9372117810563214</v>
       </c>
       <c r="J46" s="23">
         <f>[1]!transient_pd_radial(H46,cd,S,rd,model2)</f>
-        <v>5.4962927994783968</v>
+        <v>5.9371126772311982</v>
       </c>
       <c r="K46" s="24">
         <f>[1]!transient_pwf_radial_atma(G46,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>225.70109690393582</v>
+        <v>223.76702346658075</v>
       </c>
       <c r="L46" s="24">
         <f>[1]!transient_pwf_radial_atma(G46,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>225.70109690393582</v>
+        <v>223.76702346658075</v>
       </c>
       <c r="M46" s="23">
         <f t="shared" si="0"/>
-        <v>24.29890309606418</v>
+        <v>26.232976533419247</v>
       </c>
       <c r="N46" s="23">
         <f t="shared" si="1"/>
-        <v>24.29890309606418</v>
+        <v>26.232976533419247</v>
       </c>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F47" s="19">
         <f t="shared" si="2"/>
         <v>191751.05923288409</v>
       </c>
       <c r="G47" s="21">
         <f t="shared" si="3"/>
-        <v>2.2193409633435657</v>
+        <v>53.264183120245576</v>
       </c>
       <c r="H47" s="22">
-        <f>[1]!transient_def_td(G47,rw,k,por,mu,ct)</f>
-        <v>39948.137340184177</v>
+        <f>[1]!transient_td_from_t(G47,rw,k,por,mu,ct)</f>
+        <v>95875.529616442029</v>
       </c>
       <c r="I47" s="23">
         <f>[1]!transient_pd_radial(H47,cd,S,rd,model1)</f>
-        <v>5.702211139826856</v>
+        <v>6.1399436832245842</v>
       </c>
       <c r="J47" s="23">
         <f>[1]!transient_pd_radial(H47,cd,S,rd,model2)</f>
-        <v>5.7000103994650999</v>
+        <v>6.139875377266435</v>
       </c>
       <c r="K47" s="24">
         <f>[1]!transient_pwf_radial_atma(G47,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>224.80535029978901</v>
+        <v>222.87127283004051</v>
       </c>
       <c r="L47" s="24">
         <f>[1]!transient_pwf_radial_atma(G47,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>224.80535029978901</v>
+        <v>222.87127283004051</v>
       </c>
       <c r="M47" s="23">
         <f t="shared" si="0"/>
-        <v>25.194649700210988</v>
+        <v>27.12872716995949</v>
       </c>
       <c r="N47" s="23">
         <f t="shared" si="1"/>
-        <v>25.194649700210988</v>
+        <v>27.12872716995949</v>
       </c>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="6:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:17" x14ac:dyDescent="0.3">
       <c r="F48" s="19">
         <f t="shared" si="2"/>
         <v>287626.58884932613</v>
       </c>
       <c r="G48" s="21">
         <f t="shared" si="3"/>
-        <v>3.3290114450153485</v>
+        <v>79.896274680368364</v>
       </c>
       <c r="H48" s="22">
-        <f>[1]!transient_def_td(G48,rw,k,por,mu,ct)</f>
-        <v>59922.206010276263</v>
+        <f>[1]!transient_td_from_t(G48,rw,k,por,mu,ct)</f>
+        <v>143813.29442466304</v>
       </c>
       <c r="I48" s="23">
         <f>[1]!transient_pd_radial(H48,cd,S,rd,model1)</f>
-        <v>5.9049426508646485</v>
+        <v>6.342675802687884</v>
       </c>
       <c r="J48" s="23">
         <f>[1]!transient_pd_radial(H48,cd,S,rd,model2)</f>
-        <v>5.903424547141185</v>
+        <v>6.3426287926267833</v>
       </c>
       <c r="K48" s="24">
         <f>[1]!transient_pwf_radial_atma(G48,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>223.90960139141964</v>
+        <v>221.97552123340387</v>
       </c>
       <c r="L48" s="24">
         <f>[1]!transient_pwf_radial_atma(G48,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>223.90960139141964</v>
+        <v>221.97552123340387</v>
       </c>
       <c r="M48" s="23">
         <f t="shared" si="0"/>
-        <v>26.090398608580358</v>
+        <v>28.024478766596133</v>
       </c>
       <c r="N48" s="23">
         <f t="shared" si="1"/>
-        <v>26.090398608580358</v>
+        <v>28.024478766596133</v>
       </c>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F49" s="19">
         <f t="shared" si="2"/>
         <v>431439.8832739892</v>
       </c>
       <c r="G49" s="21">
         <f t="shared" si="3"/>
-        <v>4.9935171675230228</v>
+        <v>119.84441202055254</v>
       </c>
       <c r="H49" s="22">
-        <f>[1]!transient_def_td(G49,rw,k,por,mu,ct)</f>
-        <v>89883.309015414401</v>
+        <f>[1]!transient_td_from_t(G49,rw,k,por,mu,ct)</f>
+        <v>215719.94163699454</v>
       </c>
       <c r="I49" s="23">
         <f>[1]!transient_pd_radial(H49,cd,S,rd,model1)</f>
-        <v>6.1076745095739327</v>
+        <v>6.5454080670146739</v>
       </c>
       <c r="J49" s="23">
         <f>[1]!transient_pd_radial(H49,cd,S,rd,model2)</f>
-        <v>6.1066282994870562</v>
+        <v>6.5453757693176158</v>
       </c>
       <c r="K49" s="24">
         <f>[1]!transient_pwf_radial_atma(G49,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>223.01385094689854</v>
+        <v>221.07976899670237</v>
       </c>
       <c r="L49" s="24">
         <f>[1]!transient_pwf_radial_atma(G49,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>223.01385094689854</v>
+        <v>221.07976899670237</v>
       </c>
       <c r="M49" s="23">
         <f t="shared" si="0"/>
-        <v>26.986149053101457</v>
+        <v>28.92023100329763</v>
       </c>
       <c r="N49" s="23">
         <f t="shared" si="1"/>
-        <v>26.986149053101457</v>
+        <v>28.92023100329763</v>
       </c>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F50" s="19">
         <f t="shared" si="2"/>
         <v>647159.82491098379</v>
       </c>
       <c r="G50" s="21">
         <f t="shared" si="3"/>
-        <v>7.4902757512845346</v>
+        <v>179.76661803082882</v>
       </c>
       <c r="H50" s="22">
-        <f>[1]!transient_def_td(G50,rw,k,por,mu,ct)</f>
-        <v>134824.96352312161</v>
+        <f>[1]!transient_td_from_t(G50,rw,k,por,mu,ct)</f>
+        <v>323579.91245549184</v>
       </c>
       <c r="I50" s="23">
         <f>[1]!transient_pd_radial(H50,cd,S,rd,model1)</f>
-        <v>6.3104066000645469</v>
+        <v>6.7481404279171802</v>
       </c>
       <c r="J50" s="23">
         <f>[1]!transient_pd_radial(H50,cd,S,rd,model2)</f>
-        <v>6.3096862881502602</v>
+        <v>6.7481182793853804</v>
       </c>
       <c r="K50" s="24">
         <f>[1]!transient_pwf_radial_atma(G50,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>222.11809947827481</v>
+        <v>220.18401633329074</v>
       </c>
       <c r="L50" s="24">
         <f>[1]!transient_pwf_radial_atma(G50,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>222.11809947827481</v>
+        <v>220.18401633329074</v>
       </c>
       <c r="M50" s="23">
         <f t="shared" si="0"/>
-        <v>27.881900521725186</v>
+        <v>29.815983666709258</v>
       </c>
       <c r="N50" s="23">
         <f t="shared" si="1"/>
-        <v>27.881900521725186</v>
+        <v>29.815983666709258</v>
       </c>
       <c r="O50" s="9"/>
     </row>
@@ -15280,9 +15280,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:colOff>745671</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>48986</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -15299,15 +15299,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:colOff>65314</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>10886</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
+                <xdr:colOff>353786</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>59871</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -15323,14 +15323,14 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>435429</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>315686</xdr:colOff>
                 <xdr:row>7</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
@@ -15353,15 +15353,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>247650</xdr:colOff>
+                    <xdr:colOff>250371</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>136071</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>762000</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>10886</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15375,15 +15375,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>10886</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>136071</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>582386</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>10886</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/examples/ex210.transient_solutions.xlsx
+++ b/examples/ex210.transient_solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr codeName="ЭтаКнига"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB13827-04DE-46AB-805C-F6549F512E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D82E7B2-0862-43B9-98DA-D16EF817AFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" tabRatio="547" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="547" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Упражнение 2" sheetId="4" r:id="rId1"/>
@@ -51,6 +51,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -676,7 +698,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_demo9" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -695,7 +717,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -770,7 +792,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -849,7 +871,7 @@
                   <c:v>43.248779296874993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64.8731689453125</c:v>
+                  <c:v>64.873168945312486</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>97.309753417968736</c:v>
@@ -867,7 +889,7 @@
                   <c:v>492.63062667846674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>738.9459400177002</c:v>
+                  <c:v>738.94594001770008</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1108.4189100265503</c:v>
@@ -1104,7 +1126,7 @@
                   <c:v>43.248779296874993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64.8731689453125</c:v>
+                  <c:v>64.873168945312486</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>97.309753417968736</c:v>
@@ -1122,7 +1144,7 @@
                   <c:v>492.63062667846674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>738.9459400177002</c:v>
+                  <c:v>738.94594001770008</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1108.4189100265503</c:v>
@@ -1179,106 +1201,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.22030645831546281</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30439112418184777</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41308372298703944</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54901027619189335</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71266376712947022</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90166100429996732</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1107416626555278</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3328057165217615</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5606944160008425</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7888487234122294</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0140386315470096</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2350673794317117</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4519888878567144</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6654000160851865</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8760201848635916</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0845074964672676</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.291402531125641</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.4971264119449188</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7019975987932412</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9062525624176487</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.1100648080027895</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.3135605312563712</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.5168309034197591</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.7199414306815015</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.9229389591346262</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.1258568448683945</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.3287187546957284</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.531541416363325</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.7343366233690176</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.9371126772311982</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.139875377266435</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.3426287926267833</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.5453757693176158</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.7481182793853804</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1378,7 +1400,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1416,7 +1438,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887936639"/>
@@ -1508,7 +1530,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1546,7 +1568,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822254975"/>
@@ -1588,7 +1610,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1625,7 +1647,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1639,7 +1661,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1714,7 +1736,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1793,7 +1815,7 @@
                   <c:v>43.248779296874993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64.8731689453125</c:v>
+                  <c:v>64.873168945312486</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>97.309753417968736</c:v>
@@ -1811,7 +1833,7 @@
                   <c:v>492.63062667846674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>738.9459400177002</c:v>
+                  <c:v>738.94594001770008</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1108.4189100265503</c:v>
@@ -2048,7 +2070,7 @@
                   <c:v>43.248779296874993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64.8731689453125</c:v>
+                  <c:v>64.873168945312486</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>97.309753417968736</c:v>
@@ -2066,7 +2088,7 @@
                   <c:v>492.63062667846674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>738.9459400177002</c:v>
+                  <c:v>738.94594001770008</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1108.4189100265503</c:v>
@@ -2123,106 +2145,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.22030645831546281</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30439112418184777</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41308372298703944</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54901027619189335</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71266376712947022</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90166100429996732</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1107416626555278</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3328057165217615</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5606944160008425</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7888487234122294</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0140386315470096</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2350673794317117</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4519888878567144</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6654000160851865</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8760201848635916</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0845074964672676</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.291402531125641</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.4971264119449188</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7019975987932412</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9062525624176487</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.1100648080027895</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.3135605312563712</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.5168309034197591</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.7199414306815015</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.9229389591346262</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.1258568448683945</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.3287187546957284</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.531541416363325</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.7343366233690176</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.9371126772311982</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.139875377266435</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.3426287926267833</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.5453757693176158</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.7481182793853804</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,7 +2345,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2361,7 +2383,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887936639"/>
@@ -2453,7 +2475,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2491,7 +2513,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822254975"/>
@@ -2533,7 +2555,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2570,7 +2592,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2584,7 +2606,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2659,7 +2681,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2738,7 +2760,7 @@
                   <c:v>43.248779296874993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64.8731689453125</c:v>
+                  <c:v>64.873168945312486</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>97.309753417968736</c:v>
@@ -2756,7 +2778,7 @@
                   <c:v>492.63062667846674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>738.9459400177002</c:v>
+                  <c:v>738.94594001770008</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1108.4189100265503</c:v>
@@ -2993,7 +3015,7 @@
                   <c:v>43.248779296874993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64.8731689453125</c:v>
+                  <c:v>64.873168945312486</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>97.309753417968736</c:v>
@@ -3011,7 +3033,7 @@
                   <c:v>492.63062667846674</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>738.9459400177002</c:v>
+                  <c:v>738.94594001770008</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1108.4189100265503</c:v>
@@ -3068,106 +3090,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>0.22030645831546281</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30439112418184777</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41308372298703944</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54901027619189335</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71266376712947022</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90166100429996732</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1107416626555278</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3328057165217615</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5606944160008425</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7888487234122294</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0140386315470096</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2350673794317117</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4519888878567144</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6654000160851865</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8760201848635916</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0845074964672676</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.291402531125641</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.4971264119449188</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7019975987932412</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9062525624176487</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.1100648080027895</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.3135605312563712</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.5168309034197591</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.7199414306815015</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.9229389591346262</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.1258568448683945</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.3287187546957284</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.531541416363325</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.7343366233690176</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.9371126772311982</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.139875377266435</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.3426287926267833</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.5453757693176158</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.7481182793853804</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3268,7 +3290,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3306,7 +3328,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887936639"/>
@@ -3399,7 +3421,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3437,7 +3459,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822254975"/>
@@ -3479,7 +3501,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3516,7 +3538,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3530,7 +3552,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3593,7 +3615,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3792,7 +3814,7 @@
                   <c:v>237.1995526861304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>236.3050595340961</c:v>
+                  <c:v>236.30505953409607</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>235.41014646032235</c:v>
@@ -3837,7 +3859,7 @@
                   <c:v>223.76702346658075</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>222.87127283004051</c:v>
+                  <c:v>222.87127283004048</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>221.97552123340387</c:v>
@@ -4047,7 +4069,7 @@
                   <c:v>237.1995526861304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>236.3050595340961</c:v>
+                  <c:v>236.30505953409607</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>235.41014646032235</c:v>
@@ -4092,7 +4114,7 @@
                   <c:v>223.76702346658075</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>222.87127283004051</c:v>
+                  <c:v>222.87127283004048</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>221.97552123340387</c:v>
@@ -4200,7 +4222,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4238,7 +4260,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887936639"/>
@@ -4329,7 +4351,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4367,7 +4389,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822254975"/>
@@ -4409,7 +4431,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4449,7 +4471,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4463,7 +4485,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4526,7 +4548,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4725,7 +4747,7 @@
                   <c:v>237.1995526861304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>236.3050595340961</c:v>
+                  <c:v>236.30505953409607</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>235.41014646032235</c:v>
@@ -4770,7 +4792,7 @@
                   <c:v>223.76702346658075</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>222.87127283004051</c:v>
+                  <c:v>222.87127283004048</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>221.97552123340387</c:v>
@@ -4980,7 +5002,7 @@
                   <c:v>237.1995526861304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>236.3050595340961</c:v>
+                  <c:v>236.30505953409607</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>235.41014646032235</c:v>
@@ -5025,7 +5047,7 @@
                   <c:v>223.76702346658075</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>222.87127283004051</c:v>
+                  <c:v>222.87127283004048</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>221.97552123340387</c:v>
@@ -5134,7 +5156,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5172,7 +5194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887936639"/>
@@ -5263,7 +5285,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5301,7 +5323,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822254975"/>
@@ -5343,7 +5365,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5383,7 +5405,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5397,7 +5419,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5467,7 +5489,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5666,7 +5688,7 @@
                   <c:v>12.800447313869597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.694940465903898</c:v>
+                  <c:v>13.694940465903926</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>14.589853539677648</c:v>
@@ -5711,7 +5733,7 @@
                   <c:v>26.232976533419247</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27.12872716995949</c:v>
+                  <c:v>27.128727169959518</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>28.024478766596133</c:v>
@@ -5921,7 +5943,7 @@
                   <c:v>12.800447313869597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.694940465903898</c:v>
+                  <c:v>13.694940465903926</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>14.589853539677648</c:v>
@@ -5966,7 +5988,7 @@
                   <c:v>26.232976533419247</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27.12872716995949</c:v>
+                  <c:v>27.128727169959518</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>28.024478766596133</c:v>
@@ -6074,7 +6096,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6112,7 +6134,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887936639"/>
@@ -6217,7 +6239,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6255,7 +6277,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822254975"/>
@@ -6297,7 +6319,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6337,7 +6359,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6351,7 +6373,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6421,7 +6443,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6620,7 +6642,7 @@
                   <c:v>12.800447313869597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.694940465903898</c:v>
+                  <c:v>13.694940465903926</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>14.589853539677648</c:v>
@@ -6665,7 +6687,7 @@
                   <c:v>26.232976533419247</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27.12872716995949</c:v>
+                  <c:v>27.128727169959518</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>28.024478766596133</c:v>
@@ -6875,7 +6897,7 @@
                   <c:v>12.800447313869597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.694940465903898</c:v>
+                  <c:v>13.694940465903926</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>14.589853539677648</c:v>
@@ -6920,7 +6942,7 @@
                   <c:v>26.232976533419247</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27.12872716995949</c:v>
+                  <c:v>27.128727169959518</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>28.024478766596133</c:v>
@@ -7029,7 +7051,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7067,7 +7089,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887936639"/>
@@ -7172,7 +7194,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7210,7 +7232,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822254975"/>
@@ -7252,7 +7274,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7292,7 +7314,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7306,7 +7328,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7376,7 +7398,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7575,7 +7597,7 @@
                   <c:v>12.800447313869597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.694940465903898</c:v>
+                  <c:v>13.694940465903926</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>14.589853539677648</c:v>
@@ -7620,7 +7642,7 @@
                   <c:v>26.232976533419247</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27.12872716995949</c:v>
+                  <c:v>27.128727169959518</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>28.024478766596133</c:v>
@@ -7830,7 +7852,7 @@
                   <c:v>12.800447313869597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.694940465903898</c:v>
+                  <c:v>13.694940465903926</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>14.589853539677648</c:v>
@@ -7875,7 +7897,7 @@
                   <c:v>26.232976533419247</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27.12872716995949</c:v>
+                  <c:v>27.128727169959518</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>28.024478766596133</c:v>
@@ -7984,7 +8006,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8022,7 +8044,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="887936639"/>
@@ -8128,7 +8150,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8166,7 +8188,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822254975"/>
@@ -8208,7 +8230,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8248,7 +8270,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12713,9 +12735,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>745671</xdr:colOff>
+          <xdr:colOff>747713</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>48986</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12762,15 +12784,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>65314</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>10886</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>353786</xdr:colOff>
+          <xdr:colOff>352425</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>59871</xdr:rowOff>
+          <xdr:rowOff>61913</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12817,13 +12839,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>433615</xdr:colOff>
+          <xdr:colOff>433388</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>317501</xdr:colOff>
+          <xdr:colOff>314325</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -12908,15 +12930,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>250371</xdr:colOff>
+          <xdr:colOff>252413</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>136071</xdr:rowOff>
+          <xdr:rowOff>138113</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>762000</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>10886</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12966,15 +12988,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>10886</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>136071</xdr:rowOff>
+          <xdr:rowOff>138113</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>582386</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>10886</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13295,11 +13317,11 @@
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
-      <definedName name="getUFVersion"/>
       <definedName name="transient_cd_from_cs"/>
       <definedName name="transient_pd_radial"/>
       <definedName name="transient_pwf_radial_atma"/>
       <definedName name="transient_td_from_t"/>
+      <definedName name="unf_version"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -13576,40 +13598,40 @@
   </sheetPr>
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.15234375" style="1"/>
-    <col min="2" max="2" width="10.53515625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.15234375" style="1"/>
-    <col min="6" max="6" width="12.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="10.53125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.1328125" style="1"/>
+    <col min="6" max="6" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.53125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.84375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.86328125" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.15234375" style="1"/>
+    <col min="15" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="e">
-        <f ca="1">[1]!getUFVersion()</f>
-        <v>#NAME?</v>
+      <c r="G1" t="str" cm="1">
+        <f t="array" ref="G1">[1]!unf_version()</f>
+        <v>7.38</v>
       </c>
     </row>
-    <row r="2" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -13620,7 +13642,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -13631,7 +13653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="M4" s="3"/>
       <c r="X4" s="1">
         <v>2</v>
@@ -13640,7 +13662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="M5" s="3"/>
       <c r="X5" s="1">
         <v>3</v>
@@ -13649,7 +13671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="M6" s="3"/>
       <c r="X6" s="1">
         <v>4</v>
@@ -13658,26 +13680,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="I12" s="15" t="str">
         <f>VLOOKUP(model1,$X$2:Y6,2)</f>
@@ -13689,10 +13711,10 @@
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="E14" s="4" t="s">
         <v>35</v>
       </c>
@@ -13704,7 +13726,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="F15" s="20">
         <v>1.5</v>
       </c>
@@ -13718,7 +13740,7 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:25" ht="15.45" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" ht="15.4" x14ac:dyDescent="0.5">
       <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
@@ -13757,7 +13779,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="14.15" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.5">
       <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
@@ -13785,7 +13807,7 @@
       </c>
       <c r="J17" s="23">
         <f>[1]!transient_pd_radial(H17,cd,S,rd,model2)</f>
-        <v>0.22030645831546281</v>
+        <v>-1</v>
       </c>
       <c r="K17" s="24">
         <f>[1]!transient_pwf_radial_atma(G17,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -13807,7 +13829,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
@@ -13834,7 +13856,7 @@
       </c>
       <c r="J18" s="23">
         <f>[1]!transient_pd_radial(H18,cd,S,rd,model2)</f>
-        <v>0.30439112418184777</v>
+        <v>-1</v>
       </c>
       <c r="K18" s="24">
         <f>[1]!transient_pwf_radial_atma(G18,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -13856,7 +13878,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="2:17" ht="14.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:17" ht="15" x14ac:dyDescent="0.5">
       <c r="B19" s="7" t="s">
         <v>13</v>
       </c>
@@ -13885,7 +13907,7 @@
       </c>
       <c r="J19" s="23">
         <f>[1]!transient_pd_radial(H19,cd,S,rd,model2)</f>
-        <v>0.41308372298703944</v>
+        <v>-1</v>
       </c>
       <c r="K19" s="24">
         <f>[1]!transient_pwf_radial_atma(G19,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -13907,7 +13929,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
@@ -13934,7 +13956,7 @@
       </c>
       <c r="J20" s="23">
         <f>[1]!transient_pd_radial(H20,cd,S,rd,model2)</f>
-        <v>0.54901027619189335</v>
+        <v>-1</v>
       </c>
       <c r="K20" s="24">
         <f>[1]!transient_pwf_radial_atma(G20,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -13956,7 +13978,7 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="2:17" ht="14.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:17" ht="15" x14ac:dyDescent="0.5">
       <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
@@ -13985,7 +14007,7 @@
       </c>
       <c r="J21" s="23">
         <f>[1]!transient_pd_radial(H21,cd,S,rd,model2)</f>
-        <v>0.71266376712947022</v>
+        <v>-1</v>
       </c>
       <c r="K21" s="24">
         <f>[1]!transient_pwf_radial_atma(G21,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14007,7 +14029,7 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="7" t="s">
         <v>14</v>
       </c>
@@ -14036,7 +14058,7 @@
       </c>
       <c r="J22" s="23">
         <f>[1]!transient_pd_radial(H22,cd,S,rd,model2)</f>
-        <v>0.90166100429996732</v>
+        <v>-1</v>
       </c>
       <c r="K22" s="24">
         <f>[1]!transient_pwf_radial_atma(G22,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14058,7 +14080,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
@@ -14086,7 +14108,7 @@
       </c>
       <c r="J23" s="23">
         <f>[1]!transient_pd_radial(H23,cd,S,rd,model2)</f>
-        <v>1.1107416626555278</v>
+        <v>-1</v>
       </c>
       <c r="K23" s="24">
         <f>[1]!transient_pwf_radial_atma(G23,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14108,7 +14130,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B24" s="7" t="s">
         <v>19</v>
       </c>
@@ -14135,7 +14157,7 @@
       </c>
       <c r="J24" s="23">
         <f>[1]!transient_pd_radial(H24,cd,S,rd,model2)</f>
-        <v>1.3328057165217615</v>
+        <v>-1</v>
       </c>
       <c r="K24" s="24">
         <f>[1]!transient_pwf_radial_atma(G24,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14157,7 +14179,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
         <v>15</v>
       </c>
@@ -14186,7 +14208,7 @@
       </c>
       <c r="J25" s="23">
         <f>[1]!transient_pd_radial(H25,cd,S,rd,model2)</f>
-        <v>1.5606944160008425</v>
+        <v>-1</v>
       </c>
       <c r="K25" s="24">
         <f>[1]!transient_pwf_radial_atma(G25,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14208,7 +14230,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="2:17" ht="14.15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B26" s="7" t="s">
         <v>18</v>
       </c>
@@ -14236,7 +14258,7 @@
       </c>
       <c r="J26" s="23">
         <f>[1]!transient_pd_radial(H26,cd,S,rd,model2)</f>
-        <v>1.7888487234122294</v>
+        <v>-1</v>
       </c>
       <c r="K26" s="24">
         <f>[1]!transient_pwf_radial_atma(G26,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14258,7 +14280,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="2:17" ht="14.15" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:17" ht="15" x14ac:dyDescent="0.5">
       <c r="B27" s="7" t="s">
         <v>16</v>
       </c>
@@ -14286,7 +14308,7 @@
       </c>
       <c r="J27" s="23">
         <f>[1]!transient_pd_radial(H27,cd,S,rd,model2)</f>
-        <v>2.0140386315470096</v>
+        <v>-1</v>
       </c>
       <c r="K27" s="24">
         <f>[1]!transient_pwf_radial_atma(G27,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14308,7 +14330,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="F28" s="19">
         <f t="shared" si="2"/>
         <v>86.49755859375</v>
@@ -14327,7 +14349,7 @@
       </c>
       <c r="J28" s="23">
         <f>[1]!transient_pd_radial(H28,cd,S,rd,model2)</f>
-        <v>2.2350673794317117</v>
+        <v>-1</v>
       </c>
       <c r="K28" s="24">
         <f>[1]!transient_pwf_radial_atma(G28,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14349,7 +14371,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="F29" s="19">
         <f t="shared" si="2"/>
         <v>129.746337890625</v>
@@ -14360,7 +14382,7 @@
       </c>
       <c r="H29" s="22">
         <f>[1]!transient_td_from_t(G29,rw,k,por,mu,ct)</f>
-        <v>64.8731689453125</v>
+        <v>64.873168945312486</v>
       </c>
       <c r="I29" s="23">
         <f>[1]!transient_pd_radial(H29,cd,S,rd,model1)</f>
@@ -14368,7 +14390,7 @@
       </c>
       <c r="J29" s="23">
         <f>[1]!transient_pd_radial(H29,cd,S,rd,model2)</f>
-        <v>2.4519888878567144</v>
+        <v>-1</v>
       </c>
       <c r="K29" s="24">
         <f>[1]!transient_pwf_radial_atma(G29,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14390,7 +14412,7 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="F30" s="19">
         <f t="shared" si="2"/>
         <v>194.6195068359375</v>
@@ -14409,7 +14431,7 @@
       </c>
       <c r="J30" s="23">
         <f>[1]!transient_pd_radial(H30,cd,S,rd,model2)</f>
-        <v>2.6654000160851865</v>
+        <v>-1</v>
       </c>
       <c r="K30" s="24">
         <f>[1]!transient_pwf_radial_atma(G30,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14431,7 +14453,7 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="2:17" ht="14.15" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:17" ht="15" x14ac:dyDescent="0.5">
       <c r="B31" s="7" t="s">
         <v>22</v>
       </c>
@@ -14458,7 +14480,7 @@
       </c>
       <c r="J31" s="23">
         <f>[1]!transient_pd_radial(H31,cd,S,rd,model2)</f>
-        <v>2.8760201848635916</v>
+        <v>-1</v>
       </c>
       <c r="K31" s="24">
         <f>[1]!transient_pwf_radial_atma(G31,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14480,7 +14502,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="2:17" ht="14.15" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:17" ht="15" x14ac:dyDescent="0.5">
       <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
@@ -14507,29 +14529,29 @@
       </c>
       <c r="J32" s="23">
         <f>[1]!transient_pd_radial(H32,cd,S,rd,model2)</f>
-        <v>3.0845074964672676</v>
+        <v>-1</v>
       </c>
       <c r="K32" s="24">
         <f>[1]!transient_pwf_radial_atma(G32,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>236.3050595340961</v>
+        <v>236.30505953409607</v>
       </c>
       <c r="L32" s="24">
         <f>[1]!transient_pwf_radial_atma(G32,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>236.3050595340961</v>
+        <v>236.30505953409607</v>
       </c>
       <c r="M32" s="23">
         <f t="shared" si="0"/>
-        <v>13.694940465903898</v>
+        <v>13.694940465903926</v>
       </c>
       <c r="N32" s="23">
         <f t="shared" si="1"/>
-        <v>13.694940465903898</v>
+        <v>13.694940465903926</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F33" s="19">
         <f t="shared" si="2"/>
         <v>656.84083557128906</v>
@@ -14548,7 +14570,7 @@
       </c>
       <c r="J33" s="23">
         <f>[1]!transient_pd_radial(H33,cd,S,rd,model2)</f>
-        <v>3.291402531125641</v>
+        <v>-1</v>
       </c>
       <c r="K33" s="24">
         <f>[1]!transient_pwf_radial_atma(G33,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14570,7 +14592,7 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F34" s="19">
         <f t="shared" si="2"/>
         <v>985.26125335693359</v>
@@ -14589,7 +14611,7 @@
       </c>
       <c r="J34" s="23">
         <f>[1]!transient_pd_radial(H34,cd,S,rd,model2)</f>
-        <v>3.4971264119449188</v>
+        <v>-1</v>
       </c>
       <c r="K34" s="24">
         <f>[1]!transient_pwf_radial_atma(G34,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14611,7 +14633,7 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F35" s="19">
         <f t="shared" si="2"/>
         <v>1477.8918800354004</v>
@@ -14622,7 +14644,7 @@
       </c>
       <c r="H35" s="22">
         <f>[1]!transient_td_from_t(G35,rw,k,por,mu,ct)</f>
-        <v>738.9459400177002</v>
+        <v>738.94594001770008</v>
       </c>
       <c r="I35" s="23">
         <f>[1]!transient_pd_radial(H35,cd,S,rd,model1)</f>
@@ -14630,7 +14652,7 @@
       </c>
       <c r="J35" s="23">
         <f>[1]!transient_pd_radial(H35,cd,S,rd,model2)</f>
-        <v>3.7019975987932412</v>
+        <v>-1</v>
       </c>
       <c r="K35" s="24">
         <f>[1]!transient_pwf_radial_atma(G35,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14652,7 +14674,7 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F36" s="19">
         <f t="shared" si="2"/>
         <v>2216.8378200531006</v>
@@ -14671,7 +14693,7 @@
       </c>
       <c r="J36" s="23">
         <f>[1]!transient_pd_radial(H36,cd,S,rd,model2)</f>
-        <v>3.9062525624176487</v>
+        <v>-1</v>
       </c>
       <c r="K36" s="24">
         <f>[1]!transient_pwf_radial_atma(G36,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14693,7 +14715,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F37" s="19">
         <f t="shared" si="2"/>
         <v>3325.2567300796509</v>
@@ -14712,7 +14734,7 @@
       </c>
       <c r="J37" s="23">
         <f>[1]!transient_pd_radial(H37,cd,S,rd,model2)</f>
-        <v>4.1100648080027895</v>
+        <v>-1</v>
       </c>
       <c r="K37" s="24">
         <f>[1]!transient_pwf_radial_atma(G37,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14734,7 +14756,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F38" s="19">
         <f t="shared" si="2"/>
         <v>4987.8850951194763</v>
@@ -14753,7 +14775,7 @@
       </c>
       <c r="J38" s="23">
         <f>[1]!transient_pd_radial(H38,cd,S,rd,model2)</f>
-        <v>4.3135605312563712</v>
+        <v>-1</v>
       </c>
       <c r="K38" s="24">
         <f>[1]!transient_pwf_radial_atma(G38,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14775,7 +14797,7 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F39" s="19">
         <f t="shared" si="2"/>
         <v>7481.8276426792145</v>
@@ -14794,7 +14816,7 @@
       </c>
       <c r="J39" s="23">
         <f>[1]!transient_pd_radial(H39,cd,S,rd,model2)</f>
-        <v>4.5168309034197591</v>
+        <v>-1</v>
       </c>
       <c r="K39" s="24">
         <f>[1]!transient_pwf_radial_atma(G39,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14816,7 +14838,7 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F40" s="19">
         <f t="shared" si="2"/>
         <v>11222.741464018822</v>
@@ -14835,7 +14857,7 @@
       </c>
       <c r="J40" s="23">
         <f>[1]!transient_pd_radial(H40,cd,S,rd,model2)</f>
-        <v>4.7199414306815015</v>
+        <v>-1</v>
       </c>
       <c r="K40" s="24">
         <f>[1]!transient_pwf_radial_atma(G40,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14857,7 +14879,7 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F41" s="19">
         <f t="shared" si="2"/>
         <v>16834.112196028233</v>
@@ -14876,7 +14898,7 @@
       </c>
       <c r="J41" s="23">
         <f>[1]!transient_pd_radial(H41,cd,S,rd,model2)</f>
-        <v>4.9229389591346262</v>
+        <v>-1</v>
       </c>
       <c r="K41" s="24">
         <f>[1]!transient_pwf_radial_atma(G41,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14898,7 +14920,7 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F42" s="19">
         <f t="shared" si="2"/>
         <v>25251.168294042349</v>
@@ -14917,7 +14939,7 @@
       </c>
       <c r="J42" s="23">
         <f>[1]!transient_pd_radial(H42,cd,S,rd,model2)</f>
-        <v>5.1258568448683945</v>
+        <v>-1</v>
       </c>
       <c r="K42" s="24">
         <f>[1]!transient_pwf_radial_atma(G42,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14939,7 +14961,7 @@
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F43" s="19">
         <f t="shared" si="2"/>
         <v>37876.752441063523</v>
@@ -14958,7 +14980,7 @@
       </c>
       <c r="J43" s="23">
         <f>[1]!transient_pd_radial(H43,cd,S,rd,model2)</f>
-        <v>5.3287187546957284</v>
+        <v>-1</v>
       </c>
       <c r="K43" s="24">
         <f>[1]!transient_pwf_radial_atma(G43,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14980,7 +15002,7 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F44" s="19">
         <f t="shared" si="2"/>
         <v>56815.128661595285</v>
@@ -14999,7 +15021,7 @@
       </c>
       <c r="J44" s="23">
         <f>[1]!transient_pd_radial(H44,cd,S,rd,model2)</f>
-        <v>5.531541416363325</v>
+        <v>-1</v>
       </c>
       <c r="K44" s="24">
         <f>[1]!transient_pwf_radial_atma(G44,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -15021,7 +15043,7 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F45" s="19">
         <f t="shared" si="2"/>
         <v>85222.692992392927</v>
@@ -15040,7 +15062,7 @@
       </c>
       <c r="J45" s="23">
         <f>[1]!transient_pd_radial(H45,cd,S,rd,model2)</f>
-        <v>5.7343366233690176</v>
+        <v>-1</v>
       </c>
       <c r="K45" s="24">
         <f>[1]!transient_pwf_radial_atma(G45,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -15062,7 +15084,7 @@
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F46" s="19">
         <f t="shared" si="2"/>
         <v>127834.03948858939</v>
@@ -15081,7 +15103,7 @@
       </c>
       <c r="J46" s="23">
         <f>[1]!transient_pd_radial(H46,cd,S,rd,model2)</f>
-        <v>5.9371126772311982</v>
+        <v>-1</v>
       </c>
       <c r="K46" s="24">
         <f>[1]!transient_pwf_radial_atma(G46,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -15103,7 +15125,7 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F47" s="19">
         <f t="shared" si="2"/>
         <v>191751.05923288409</v>
@@ -15122,27 +15144,27 @@
       </c>
       <c r="J47" s="23">
         <f>[1]!transient_pd_radial(H47,cd,S,rd,model2)</f>
-        <v>6.139875377266435</v>
+        <v>-1</v>
       </c>
       <c r="K47" s="24">
         <f>[1]!transient_pwf_radial_atma(G47,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>222.87127283004051</v>
+        <v>222.87127283004048</v>
       </c>
       <c r="L47" s="24">
         <f>[1]!transient_pwf_radial_atma(G47,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
-        <v>222.87127283004051</v>
+        <v>222.87127283004048</v>
       </c>
       <c r="M47" s="23">
         <f t="shared" si="0"/>
-        <v>27.12872716995949</v>
+        <v>27.128727169959518</v>
       </c>
       <c r="N47" s="23">
         <f t="shared" si="1"/>
-        <v>27.12872716995949</v>
+        <v>27.128727169959518</v>
       </c>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F48" s="19">
         <f t="shared" si="2"/>
         <v>287626.58884932613</v>
@@ -15161,7 +15183,7 @@
       </c>
       <c r="J48" s="23">
         <f>[1]!transient_pd_radial(H48,cd,S,rd,model2)</f>
-        <v>6.3426287926267833</v>
+        <v>-1</v>
       </c>
       <c r="K48" s="24">
         <f>[1]!transient_pwf_radial_atma(G48,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -15181,7 +15203,7 @@
       </c>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F49" s="19">
         <f t="shared" si="2"/>
         <v>431439.8832739892</v>
@@ -15200,7 +15222,7 @@
       </c>
       <c r="J49" s="23">
         <f>[1]!transient_pd_radial(H49,cd,S,rd,model2)</f>
-        <v>6.5453757693176158</v>
+        <v>-1</v>
       </c>
       <c r="K49" s="24">
         <f>[1]!transient_pwf_radial_atma(G49,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -15220,7 +15242,7 @@
       </c>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:15" x14ac:dyDescent="0.35">
       <c r="F50" s="19">
         <f t="shared" si="2"/>
         <v>647159.82491098379</v>
@@ -15239,7 +15261,7 @@
       </c>
       <c r="J50" s="23">
         <f>[1]!transient_pd_radial(H50,cd,S,rd,model2)</f>
-        <v>6.7481182793853804</v>
+        <v>-1</v>
       </c>
       <c r="K50" s="24">
         <f>[1]!transient_pwf_radial_atma(G50,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -15280,9 +15302,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>745671</xdr:colOff>
+                <xdr:colOff>747713</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>48986</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -15299,15 +15321,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>65314</xdr:colOff>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>10886</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>353786</xdr:colOff>
+                <xdr:colOff>352425</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>59871</xdr:rowOff>
+                <xdr:rowOff>61913</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -15324,13 +15346,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>435429</xdr:colOff>
+                <xdr:colOff>433388</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>315686</xdr:colOff>
+                <xdr:colOff>314325</xdr:colOff>
                 <xdr:row>7</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
@@ -15353,15 +15375,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>250371</xdr:colOff>
+                    <xdr:colOff>252413</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>136071</xdr:rowOff>
+                    <xdr:rowOff>138113</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
                     <xdr:colOff>762000</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>10886</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15375,15 +15397,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>10886</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>136071</xdr:rowOff>
+                    <xdr:rowOff>138113</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>582386</xdr:colOff>
+                    <xdr:colOff>581025</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>10886</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/examples/ex210.transient_solutions.xlsx
+++ b/examples/ex210.transient_solutions.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unifloc\unifloc_vba\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D82E7B2-0862-43B9-98DA-D16EF817AFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="547" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" tabRatio="547"/>
   </bookViews>
   <sheets>
     <sheet name="Упражнение 2" sheetId="4" r:id="rId1"/>
@@ -38,7 +37,7 @@
     <definedName name="S">'Упражнение 2'!$C$18</definedName>
     <definedName name="scale">'Упражнение 2'!$F$15</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,28 +50,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,7 +480,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -698,8 +675,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_demo9" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_demo9" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -717,7 +694,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -767,6 +744,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -832,7 +810,7 @@
             <c:numRef>
               <c:f>'Упражнение 2'!$H$17:$H$50</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0.49999999999999994</c:v>
@@ -1087,7 +1065,7 @@
             <c:numRef>
               <c:f>'Упражнение 2'!$H$17:$H$50</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0.49999999999999994</c:v>
@@ -1201,106 +1179,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>-1</c:v>
+                  <c:v>0.22030645831546281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>0.30439112418184777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0.41308372298703944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0.54901027619189335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0.71266376712947022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0.90166100429996732</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1</c:v>
+                  <c:v>1.1107416626555278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1</c:v>
+                  <c:v>1.3328057165217615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1</c:v>
+                  <c:v>1.5606944160008425</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1</c:v>
+                  <c:v>1.7888487234122294</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1</c:v>
+                  <c:v>2.0140386315470096</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1</c:v>
+                  <c:v>2.2350673794317117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1</c:v>
+                  <c:v>2.4519888874310709</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1</c:v>
+                  <c:v>2.6654000160851865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1</c:v>
+                  <c:v>2.8760201848635916</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1</c:v>
+                  <c:v>3.0845074964672676</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1</c:v>
+                  <c:v>3.291402531125641</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1</c:v>
+                  <c:v>3.4971264119449188</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1</c:v>
+                  <c:v>3.7019975984294433</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1</c:v>
+                  <c:v>3.9062525624176487</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1</c:v>
+                  <c:v>4.1100648080027895</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1</c:v>
+                  <c:v>4.3135605312563712</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1</c:v>
+                  <c:v>4.5168309034197591</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1</c:v>
+                  <c:v>4.7199414306815015</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1</c:v>
+                  <c:v>4.9229389591346262</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1</c:v>
+                  <c:v>5.1258568448683945</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1</c:v>
+                  <c:v>5.3287187546957284</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1</c:v>
+                  <c:v>5.531541416363325</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1</c:v>
+                  <c:v>5.7343366233690176</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1</c:v>
+                  <c:v>5.9371126772311982</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1</c:v>
+                  <c:v>6.139875377266435</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1</c:v>
+                  <c:v>6.3426287926267833</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1</c:v>
+                  <c:v>6.5453757693176158</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1</c:v>
+                  <c:v>6.7481182793853804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,6 +1353,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1585,6 +1564,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1616,6 +1596,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1623,7 +1604,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1661,7 +1641,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1711,6 +1691,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1776,7 +1757,7 @@
             <c:numRef>
               <c:f>'Упражнение 2'!$H$17:$H$50</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0.49999999999999994</c:v>
@@ -2031,7 +2012,7 @@
             <c:numRef>
               <c:f>'Упражнение 2'!$H$17:$H$50</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0.49999999999999994</c:v>
@@ -2145,106 +2126,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>-1</c:v>
+                  <c:v>0.22030645831546281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>0.30439112418184777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0.41308372298703944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0.54901027619189335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0.71266376712947022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0.90166100429996732</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1</c:v>
+                  <c:v>1.1107416626555278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1</c:v>
+                  <c:v>1.3328057165217615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1</c:v>
+                  <c:v>1.5606944160008425</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1</c:v>
+                  <c:v>1.7888487234122294</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1</c:v>
+                  <c:v>2.0140386315470096</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1</c:v>
+                  <c:v>2.2350673794317117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1</c:v>
+                  <c:v>2.4519888874310709</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1</c:v>
+                  <c:v>2.6654000160851865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1</c:v>
+                  <c:v>2.8760201848635916</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1</c:v>
+                  <c:v>3.0845074964672676</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1</c:v>
+                  <c:v>3.291402531125641</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1</c:v>
+                  <c:v>3.4971264119449188</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1</c:v>
+                  <c:v>3.7019975984294433</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1</c:v>
+                  <c:v>3.9062525624176487</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1</c:v>
+                  <c:v>4.1100648080027895</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1</c:v>
+                  <c:v>4.3135605312563712</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1</c:v>
+                  <c:v>4.5168309034197591</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1</c:v>
+                  <c:v>4.7199414306815015</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1</c:v>
+                  <c:v>4.9229389591346262</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1</c:v>
+                  <c:v>5.1258568448683945</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1</c:v>
+                  <c:v>5.3287187546957284</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1</c:v>
+                  <c:v>5.531541416363325</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1</c:v>
+                  <c:v>5.7343366233690176</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1</c:v>
+                  <c:v>5.9371126772311982</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1</c:v>
+                  <c:v>6.139875377266435</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1</c:v>
+                  <c:v>6.3426287926267833</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1</c:v>
+                  <c:v>6.5453757693176158</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1</c:v>
+                  <c:v>6.7481182793853804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2320,6 +2301,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2530,6 +2512,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2561,6 +2544,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2568,7 +2552,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2606,7 +2589,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2656,6 +2639,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2721,7 +2705,7 @@
             <c:numRef>
               <c:f>'Упражнение 2'!$H$17:$H$50</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0.49999999999999994</c:v>
@@ -2976,7 +2960,7 @@
             <c:numRef>
               <c:f>'Упражнение 2'!$H$17:$H$50</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0.49999999999999994</c:v>
@@ -3090,106 +3074,106 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>-1</c:v>
+                  <c:v>0.22030645831546281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1</c:v>
+                  <c:v>0.30439112418184777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0.41308372298703944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0.54901027619189335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0.71266376712947022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0.90166100429996732</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1</c:v>
+                  <c:v>1.1107416626555278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1</c:v>
+                  <c:v>1.3328057165217615</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1</c:v>
+                  <c:v>1.5606944160008425</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1</c:v>
+                  <c:v>1.7888487234122294</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1</c:v>
+                  <c:v>2.0140386315470096</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1</c:v>
+                  <c:v>2.2350673794317117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1</c:v>
+                  <c:v>2.4519888874310709</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1</c:v>
+                  <c:v>2.6654000160851865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1</c:v>
+                  <c:v>2.8760201848635916</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1</c:v>
+                  <c:v>3.0845074964672676</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1</c:v>
+                  <c:v>3.291402531125641</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1</c:v>
+                  <c:v>3.4971264119449188</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1</c:v>
+                  <c:v>3.7019975984294433</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1</c:v>
+                  <c:v>3.9062525624176487</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1</c:v>
+                  <c:v>4.1100648080027895</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1</c:v>
+                  <c:v>4.3135605312563712</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1</c:v>
+                  <c:v>4.5168309034197591</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1</c:v>
+                  <c:v>4.7199414306815015</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1</c:v>
+                  <c:v>4.9229389591346262</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1</c:v>
+                  <c:v>5.1258568448683945</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1</c:v>
+                  <c:v>5.3287187546957284</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1</c:v>
+                  <c:v>5.531541416363325</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1</c:v>
+                  <c:v>5.7343366233690176</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1</c:v>
+                  <c:v>5.9371126772311982</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1</c:v>
+                  <c:v>6.139875377266435</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1</c:v>
+                  <c:v>6.3426287926267833</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1</c:v>
+                  <c:v>6.5453757693176158</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1</c:v>
+                  <c:v>6.7481182793853804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3265,6 +3249,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3476,6 +3461,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3507,6 +3493,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3514,7 +3501,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3552,7 +3538,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4437,6 +4423,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4444,7 +4431,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4485,7 +4471,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5371,6 +5357,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5378,7 +5365,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5419,7 +5405,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6325,6 +6311,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6332,7 +6319,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6373,7 +6359,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7280,6 +7266,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7287,7 +7274,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7328,7 +7314,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8236,6 +8222,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8243,7 +8230,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12735,7 +12721,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>747713</xdr:colOff>
+          <xdr:colOff>752475</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -12792,7 +12778,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>352425</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>61913</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12839,7 +12825,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>433388</xdr:colOff>
+          <xdr:colOff>438150</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -12930,9 +12916,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>252413</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>138113</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -12990,7 +12976,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>138113</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
@@ -13592,46 +13578,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Worksheet____4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1"/>
-    <col min="2" max="2" width="10.53125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.1328125" style="1"/>
-    <col min="6" max="6" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.86328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1328125" style="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="str" cm="1">
+      <c r="G1" t="str">
         <f t="array" ref="G1">[1]!unf_version()</f>
-        <v>7.38</v>
+        <v>7.50</v>
       </c>
     </row>
-    <row r="2" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -13642,7 +13628,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -13653,7 +13639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="M4" s="3"/>
       <c r="X4" s="1">
         <v>2</v>
@@ -13662,7 +13648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="M5" s="3"/>
       <c r="X5" s="1">
         <v>3</v>
@@ -13671,7 +13657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="M6" s="3"/>
       <c r="X6" s="1">
         <v>4</v>
@@ -13680,26 +13666,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="I12" s="15" t="str">
         <f>VLOOKUP(model1,$X$2:Y6,2)</f>
@@ -13711,10 +13697,10 @@
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="E14" s="4" t="s">
         <v>35</v>
       </c>
@@ -13726,7 +13712,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="F15" s="20">
         <v>1.5</v>
       </c>
@@ -13740,7 +13726,7 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:25" ht="15.4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
@@ -13779,7 +13765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
@@ -13807,7 +13793,7 @@
       </c>
       <c r="J17" s="23">
         <f>[1]!transient_pd_radial(H17,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>0.22030645831546281</v>
       </c>
       <c r="K17" s="24">
         <f>[1]!transient_pwf_radial_atma(G17,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -13829,7 +13815,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>12</v>
       </c>
@@ -13856,7 +13842,7 @@
       </c>
       <c r="J18" s="23">
         <f>[1]!transient_pd_radial(H18,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>0.30439112418184777</v>
       </c>
       <c r="K18" s="24">
         <f>[1]!transient_pwf_radial_atma(G18,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -13878,7 +13864,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="2:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>13</v>
       </c>
@@ -13907,7 +13893,7 @@
       </c>
       <c r="J19" s="23">
         <f>[1]!transient_pd_radial(H19,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>0.41308372298703944</v>
       </c>
       <c r="K19" s="24">
         <f>[1]!transient_pwf_radial_atma(G19,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -13929,7 +13915,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
@@ -13956,7 +13942,7 @@
       </c>
       <c r="J20" s="23">
         <f>[1]!transient_pd_radial(H20,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>0.54901027619189335</v>
       </c>
       <c r="K20" s="24">
         <f>[1]!transient_pwf_radial_atma(G20,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -13978,7 +13964,7 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="2:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>17</v>
       </c>
@@ -14007,7 +13993,7 @@
       </c>
       <c r="J21" s="23">
         <f>[1]!transient_pd_radial(H21,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>0.71266376712947022</v>
       </c>
       <c r="K21" s="24">
         <f>[1]!transient_pwf_radial_atma(G21,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14029,7 +14015,7 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>14</v>
       </c>
@@ -14058,7 +14044,7 @@
       </c>
       <c r="J22" s="23">
         <f>[1]!transient_pd_radial(H22,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>0.90166100429996732</v>
       </c>
       <c r="K22" s="24">
         <f>[1]!transient_pwf_radial_atma(G22,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14080,7 +14066,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
@@ -14108,7 +14094,7 @@
       </c>
       <c r="J23" s="23">
         <f>[1]!transient_pd_radial(H23,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>1.1107416626555278</v>
       </c>
       <c r="K23" s="24">
         <f>[1]!transient_pwf_radial_atma(G23,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14130,7 +14116,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
         <v>19</v>
       </c>
@@ -14157,7 +14143,7 @@
       </c>
       <c r="J24" s="23">
         <f>[1]!transient_pd_radial(H24,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>1.3328057165217615</v>
       </c>
       <c r="K24" s="24">
         <f>[1]!transient_pwf_radial_atma(G24,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14179,7 +14165,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>15</v>
       </c>
@@ -14208,7 +14194,7 @@
       </c>
       <c r="J25" s="23">
         <f>[1]!transient_pd_radial(H25,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>1.5606944160008425</v>
       </c>
       <c r="K25" s="24">
         <f>[1]!transient_pwf_radial_atma(G25,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14230,7 +14216,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="2:17" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>18</v>
       </c>
@@ -14258,7 +14244,7 @@
       </c>
       <c r="J26" s="23">
         <f>[1]!transient_pd_radial(H26,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>1.7888487234122294</v>
       </c>
       <c r="K26" s="24">
         <f>[1]!transient_pwf_radial_atma(G26,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14280,7 +14266,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="2:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>16</v>
       </c>
@@ -14308,7 +14294,7 @@
       </c>
       <c r="J27" s="23">
         <f>[1]!transient_pd_radial(H27,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>2.0140386315470096</v>
       </c>
       <c r="K27" s="24">
         <f>[1]!transient_pwf_radial_atma(G27,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14330,7 +14316,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F28" s="19">
         <f t="shared" si="2"/>
         <v>86.49755859375</v>
@@ -14349,7 +14335,7 @@
       </c>
       <c r="J28" s="23">
         <f>[1]!transient_pd_radial(H28,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>2.2350673794317117</v>
       </c>
       <c r="K28" s="24">
         <f>[1]!transient_pwf_radial_atma(G28,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14371,7 +14357,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F29" s="19">
         <f t="shared" si="2"/>
         <v>129.746337890625</v>
@@ -14390,7 +14376,7 @@
       </c>
       <c r="J29" s="23">
         <f>[1]!transient_pd_radial(H29,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>2.4519888874310709</v>
       </c>
       <c r="K29" s="24">
         <f>[1]!transient_pwf_radial_atma(G29,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14412,7 +14398,7 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F30" s="19">
         <f t="shared" si="2"/>
         <v>194.6195068359375</v>
@@ -14431,7 +14417,7 @@
       </c>
       <c r="J30" s="23">
         <f>[1]!transient_pd_radial(H30,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>2.6654000160851865</v>
       </c>
       <c r="K30" s="24">
         <f>[1]!transient_pwf_radial_atma(G30,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14453,7 +14439,7 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="2:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>22</v>
       </c>
@@ -14480,7 +14466,7 @@
       </c>
       <c r="J31" s="23">
         <f>[1]!transient_pd_radial(H31,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>2.8760201848635916</v>
       </c>
       <c r="K31" s="24">
         <f>[1]!transient_pwf_radial_atma(G31,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14502,7 +14488,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="2:17" ht="15" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>29</v>
       </c>
@@ -14529,7 +14515,7 @@
       </c>
       <c r="J32" s="23">
         <f>[1]!transient_pd_radial(H32,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>3.0845074964672676</v>
       </c>
       <c r="K32" s="24">
         <f>[1]!transient_pwf_radial_atma(G32,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14551,7 +14537,7 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F33" s="19">
         <f t="shared" si="2"/>
         <v>656.84083557128906</v>
@@ -14570,7 +14556,7 @@
       </c>
       <c r="J33" s="23">
         <f>[1]!transient_pd_radial(H33,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>3.291402531125641</v>
       </c>
       <c r="K33" s="24">
         <f>[1]!transient_pwf_radial_atma(G33,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14592,7 +14578,7 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F34" s="19">
         <f t="shared" si="2"/>
         <v>985.26125335693359</v>
@@ -14611,7 +14597,7 @@
       </c>
       <c r="J34" s="23">
         <f>[1]!transient_pd_radial(H34,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>3.4971264119449188</v>
       </c>
       <c r="K34" s="24">
         <f>[1]!transient_pwf_radial_atma(G34,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14633,7 +14619,7 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F35" s="19">
         <f t="shared" si="2"/>
         <v>1477.8918800354004</v>
@@ -14652,7 +14638,7 @@
       </c>
       <c r="J35" s="23">
         <f>[1]!transient_pd_radial(H35,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>3.7019975984294433</v>
       </c>
       <c r="K35" s="24">
         <f>[1]!transient_pwf_radial_atma(G35,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14674,7 +14660,7 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F36" s="19">
         <f t="shared" si="2"/>
         <v>2216.8378200531006</v>
@@ -14693,7 +14679,7 @@
       </c>
       <c r="J36" s="23">
         <f>[1]!transient_pd_radial(H36,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>3.9062525624176487</v>
       </c>
       <c r="K36" s="24">
         <f>[1]!transient_pwf_radial_atma(G36,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14715,7 +14701,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F37" s="19">
         <f t="shared" si="2"/>
         <v>3325.2567300796509</v>
@@ -14734,7 +14720,7 @@
       </c>
       <c r="J37" s="23">
         <f>[1]!transient_pd_radial(H37,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>4.1100648080027895</v>
       </c>
       <c r="K37" s="24">
         <f>[1]!transient_pwf_radial_atma(G37,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14756,7 +14742,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F38" s="19">
         <f t="shared" si="2"/>
         <v>4987.8850951194763</v>
@@ -14775,7 +14761,7 @@
       </c>
       <c r="J38" s="23">
         <f>[1]!transient_pd_radial(H38,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>4.3135605312563712</v>
       </c>
       <c r="K38" s="24">
         <f>[1]!transient_pwf_radial_atma(G38,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14797,7 +14783,7 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F39" s="19">
         <f t="shared" si="2"/>
         <v>7481.8276426792145</v>
@@ -14816,7 +14802,7 @@
       </c>
       <c r="J39" s="23">
         <f>[1]!transient_pd_radial(H39,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>4.5168309034197591</v>
       </c>
       <c r="K39" s="24">
         <f>[1]!transient_pwf_radial_atma(G39,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14838,7 +14824,7 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F40" s="19">
         <f t="shared" si="2"/>
         <v>11222.741464018822</v>
@@ -14857,7 +14843,7 @@
       </c>
       <c r="J40" s="23">
         <f>[1]!transient_pd_radial(H40,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>4.7199414306815015</v>
       </c>
       <c r="K40" s="24">
         <f>[1]!transient_pwf_radial_atma(G40,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14879,7 +14865,7 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F41" s="19">
         <f t="shared" si="2"/>
         <v>16834.112196028233</v>
@@ -14898,7 +14884,7 @@
       </c>
       <c r="J41" s="23">
         <f>[1]!transient_pd_radial(H41,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>4.9229389591346262</v>
       </c>
       <c r="K41" s="24">
         <f>[1]!transient_pwf_radial_atma(G41,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14920,7 +14906,7 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F42" s="19">
         <f t="shared" si="2"/>
         <v>25251.168294042349</v>
@@ -14939,7 +14925,7 @@
       </c>
       <c r="J42" s="23">
         <f>[1]!transient_pd_radial(H42,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>5.1258568448683945</v>
       </c>
       <c r="K42" s="24">
         <f>[1]!transient_pwf_radial_atma(G42,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -14961,7 +14947,7 @@
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F43" s="19">
         <f t="shared" si="2"/>
         <v>37876.752441063523</v>
@@ -14980,7 +14966,7 @@
       </c>
       <c r="J43" s="23">
         <f>[1]!transient_pd_radial(H43,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>5.3287187546957284</v>
       </c>
       <c r="K43" s="24">
         <f>[1]!transient_pwf_radial_atma(G43,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -15002,7 +14988,7 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F44" s="19">
         <f t="shared" si="2"/>
         <v>56815.128661595285</v>
@@ -15021,7 +15007,7 @@
       </c>
       <c r="J44" s="23">
         <f>[1]!transient_pd_radial(H44,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>5.531541416363325</v>
       </c>
       <c r="K44" s="24">
         <f>[1]!transient_pwf_radial_atma(G44,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -15043,7 +15029,7 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F45" s="19">
         <f t="shared" si="2"/>
         <v>85222.692992392927</v>
@@ -15062,7 +15048,7 @@
       </c>
       <c r="J45" s="23">
         <f>[1]!transient_pd_radial(H45,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>5.7343366233690176</v>
       </c>
       <c r="K45" s="24">
         <f>[1]!transient_pwf_radial_atma(G45,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -15084,7 +15070,7 @@
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F46" s="19">
         <f t="shared" si="2"/>
         <v>127834.03948858939</v>
@@ -15103,7 +15089,7 @@
       </c>
       <c r="J46" s="23">
         <f>[1]!transient_pd_radial(H46,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>5.9371126772311982</v>
       </c>
       <c r="K46" s="24">
         <f>[1]!transient_pwf_radial_atma(G46,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -15125,7 +15111,7 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F47" s="19">
         <f t="shared" si="2"/>
         <v>191751.05923288409</v>
@@ -15144,7 +15130,7 @@
       </c>
       <c r="J47" s="23">
         <f>[1]!transient_pd_radial(H47,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>6.139875377266435</v>
       </c>
       <c r="K47" s="24">
         <f>[1]!transient_pwf_radial_atma(G47,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -15164,7 +15150,7 @@
       </c>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="6:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F48" s="19">
         <f t="shared" si="2"/>
         <v>287626.58884932613</v>
@@ -15183,7 +15169,7 @@
       </c>
       <c r="J48" s="23">
         <f>[1]!transient_pd_radial(H48,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>6.3426287926267833</v>
       </c>
       <c r="K48" s="24">
         <f>[1]!transient_pwf_radial_atma(G48,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -15203,7 +15189,7 @@
       </c>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="6:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F49" s="19">
         <f t="shared" si="2"/>
         <v>431439.8832739892</v>
@@ -15222,7 +15208,7 @@
       </c>
       <c r="J49" s="23">
         <f>[1]!transient_pd_radial(H49,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>6.5453757693176158</v>
       </c>
       <c r="K49" s="24">
         <f>[1]!transient_pwf_radial_atma(G49,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -15242,7 +15228,7 @@
       </c>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="6:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F50" s="19">
         <f t="shared" si="2"/>
         <v>647159.82491098379</v>
@@ -15261,7 +15247,7 @@
       </c>
       <c r="J50" s="23">
         <f>[1]!transient_pd_radial(H50,cd,S,rd,model2)</f>
-        <v>-1</v>
+        <v>6.7481182793853804</v>
       </c>
       <c r="K50" s="24">
         <f>[1]!transient_pwf_radial_atma(G50,q,Pi,S,Cs,r_,rw,k,h,por,mu,B,ct,model1)</f>
@@ -15302,7 +15288,7 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>747713</xdr:colOff>
+                <xdr:colOff>752475</xdr:colOff>
                 <xdr:row>7</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </to>
@@ -15329,7 +15315,7 @@
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>352425</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>61913</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -15346,7 +15332,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>433388</xdr:colOff>
+                <xdr:colOff>438150</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -15375,9 +15361,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>252413</xdr:colOff>
+                    <xdr:colOff>257175</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>138113</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -15399,7 +15385,7 @@
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>138113</xdr:rowOff>
+                    <xdr:rowOff>142875</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
